--- a/xlsx/夏威夷州_intext.xlsx
+++ b/xlsx/夏威夷州_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1326">
   <si>
     <t>夏威夷州</t>
   </si>
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_夏威夷州</t>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_夏威夷州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E5%B7%9E%E5%B7%9E%E6%97%97</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E8%8B%B1%E8%AA%9E</t>
   </si>
   <si>
-    <t>夏威夷英語</t>
+    <t>夏威夷英语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E8%AF%AD</t>
@@ -107,7 +107,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%9B%E7%B4%8D%E5%9F%BA%E7%81%AB%E5%B1%B1</t>
   </si>
   <si>
-    <t>毛納基火山</t>
+    <t>毛纳基火山</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD%E4%BE%9D%E5%8A%A0%E5%85%A5%E8%81%94%E9%82%A6%E9%A1%BA%E5%BA%8F%E6%8E%92%E5%88%97%E5%88%97%E8%A1%A8</t>
@@ -125,7 +125,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>民主黨 (美國)</t>
+    <t>民主党 (美国)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Shan_Tsutsui</t>
@@ -143,13 +143,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E8%90%8A%E6%81%A9%C2%B7%E5%A4%8F%E8%8C%B2</t>
   </si>
   <si>
-    <t>布萊恩·夏茲</t>
+    <t>布莱恩·夏兹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E9%87%8E%E6%85%B6%E5%AD%90</t>
   </si>
   <si>
-    <t>廣野慶子</t>
+    <t>广野庆子</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BC%97%E8%AE%AE%E9%99%A2</t>
@@ -167,7 +167,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%EF%BC%8D%E9%98%BF%E7%95%99%E7%94%B3%E6%99%82%E5%8D%80</t>
   </si>
   <si>
-    <t>夏威夷－阿留申時區</t>
+    <t>夏威夷－阿留申时区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/UTC-10</t>
@@ -179,13 +179,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E4%BB%A4%E6%99%82%E9%96%93</t>
   </si>
   <si>
-    <t>夏令時間</t>
+    <t>夏令时间</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E7%B8%AE%E5%AF%AB%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國各州縮寫列表</t>
+    <t>美国各州缩写列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ISO_3166-2:US</t>
@@ -203,7 +203,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>夏威夷群島</t>
+    <t>夏威夷群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B</t>
@@ -221,19 +221,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A4%AA%E5%B9%B3%E6%B4%8B%E6%B2%BF%E5%B2%B8%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>美國太平洋沿岸地區</t>
+    <t>美国太平洋沿岸地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E6%98%8E%E6%B2%BB%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>三明治群島</t>
+    <t>三明治群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E5%B8%B6</t>
   </si>
   <si>
-    <t>熱帶</t>
+    <t>热带</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
@@ -245,13 +245,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>美洲大陸</t>
+    <t>美洲大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E8%96%A9%E6%91%A9%E4%BA%9E%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>美屬薩摩亞群島</t>
+    <t>美属萨摩亚群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E7%A7%8D%E4%BA%BA</t>
@@ -263,13 +263,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E8%A3%94%E7%BE%8E%E5%9C%8B%E4%BA%BA</t>
   </si>
   <si>
-    <t>亞裔美國人</t>
+    <t>亚裔美国人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%80%95%E5%8D%B1%E7%89%A9%E7%A8%AE</t>
   </si>
   <si>
-    <t>瀕危物種</t>
+    <t>濒危物种</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%92%96%E5%95%A1</t>
@@ -281,7 +281,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>夏威夷歷史</t>
+    <t>夏威夷历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E5%BA%93%E5%85%8B</t>
@@ -299,7 +299,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%85%8B%E9%95%B7</t>
   </si>
   <si>
-    <t>酋長</t>
+    <t>酋长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E7%BE%8E%E5%93%88%E6%A2%85%E5%93%88</t>
@@ -317,13 +317,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
   </si>
   <si>
-    <t>歐洲</t>
+    <t>欧洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E8%83%A1%E5%B3%B6</t>
   </si>
   <si>
-    <t>歐胡島</t>
+    <t>欧胡岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E5%AD%97%E6%97%97</t>
@@ -341,7 +341,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB%E7%AB%8B%E6%86%B2%E5%88%B6</t>
   </si>
   <si>
-    <t>君主立憲制</t>
+    <t>君主立宪制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E7%95%99%E5%8D%A1%E6%8B%89%E5%B0%BC%E5%A5%B3%E7%8E%8B</t>
@@ -353,13 +353,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>夏威夷王國</t>
+    <t>夏威夷王国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A1%91%E7%A6%8F%E5%BE%B7%C2%B7%E5%A4%9A%E7%88%BE</t>
   </si>
   <si>
-    <t>桑福德·多爾</t>
+    <t>桑福德·多尔</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/James_Henderson_Blount</t>
@@ -371,13 +371,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E6%A0%B9%E5%A0%B1%E5%91%8A</t>
   </si>
   <si>
-    <t>摩根報告</t>
+    <t>摩根报告</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>夏威夷共和國</t>
+    <t>夏威夷共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
@@ -395,13 +395,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E5%B7%B4%E9%A6%AC</t>
   </si>
   <si>
-    <t>歐巴馬</t>
+    <t>欧巴马</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B3%B6%E5%B6%BC</t>
   </si>
   <si>
-    <t>島嶼</t>
+    <t>岛屿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8F%8A%E7%91%9A%E7%A4%81</t>
@@ -425,19 +425,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BD%A0%E5%A5%BD%E5%B3%B6</t>
   </si>
   <si>
-    <t>你好島</t>
+    <t>你好岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E5%B3%B6</t>
   </si>
   <si>
-    <t>夏威夷島</t>
+    <t>夏威夷岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E7%81%AB%E5%B1%B1%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>夏威夷火山國家公園</t>
+    <t>夏威夷火山国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E5%B8%8C%E6%B5%B7%E5%BA%95%E5%B1%B1</t>
@@ -449,7 +449,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%90%8A%E4%BA%9E%E5%8D%A1%E6%8B%89%E7%81%AB%E5%B1%B1</t>
   </si>
   <si>
-    <t>哈萊亞卡拉火山</t>
+    <t>哈莱亚卡拉火山</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E6%B4%9B_(%E5%A4%8F%E5%A8%81%E5%A4%B7%E5%B7%9E)</t>
@@ -461,13 +461,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%87%B1%E7%9B%A7%E9%98%BF_(%E5%A4%8F%E5%A8%81%E5%A4%B7%E7%B8%A3)</t>
   </si>
   <si>
-    <t>凱盧阿 (夏威夷縣)</t>
+    <t>凯卢阿 (夏威夷县)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E6%84%9B%E5%B3%B6</t>
   </si>
   <si>
-    <t>可愛島</t>
+    <t>可爱岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E8%83%A1%E5%9F%83</t>
@@ -479,49 +479,49 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8C%82%E4%BC%8A%E5%B3%B6</t>
   </si>
   <si>
-    <t>茂伊島</t>
+    <t>茂伊岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E4%BA%92%E9%99%B8%E4%BC%8A</t>
   </si>
   <si>
-    <t>卡互陸伊</t>
+    <t>卡互陆伊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8C%82%E5%AE%9C%E5%B3%B6</t>
   </si>
   <si>
-    <t>茂宜島</t>
+    <t>茂宜岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E8%83%A1%E6%8B%89%E5%A8%81%E5%B3%B6</t>
   </si>
   <si>
-    <t>卡胡拉威島</t>
+    <t>卡胡拉威岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E5%A5%88%E5%B3%B6</t>
   </si>
   <si>
-    <t>拉奈島</t>
+    <t>拉奈岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E6%B4%9B%E5%87%B1%E5%B3%B6</t>
   </si>
   <si>
-    <t>摩洛凱島</t>
+    <t>摩洛凯岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E8%B1%AA%E5%B3%B6</t>
   </si>
   <si>
-    <t>尼豪島</t>
+    <t>尼豪岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B8%A3</t>
   </si>
   <si>
-    <t>縣</t>
+    <t>县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E5%B7%9E%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
@@ -545,13 +545,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>共和黨 (美國)</t>
+    <t>共和党 (美国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A7%80%E5%85%89%E6%A5%AD</t>
   </si>
   <si>
-    <t>觀光業</t>
+    <t>观光业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AA%80%E9%A6%99</t>
@@ -563,7 +563,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AD%9A</t>
   </si>
   <si>
-    <t>魚</t>
+    <t>鱼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%98%E8%94%97</t>
@@ -575,7 +575,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%A0%E8%98%BF</t>
   </si>
   <si>
-    <t>菠蘿</t>
+    <t>菠萝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E5%B7%9E%E6%95%99%E8%82%B2%E9%83%A8</t>
@@ -605,13 +605,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E5%A4%A7%E5%AD%B8%E5%B8%8C%E6%B4%9B%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>夏威夷大學希洛分校</t>
+    <t>夏威夷大学希洛分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E5%A4%A7%E5%AD%B8%E9%A6%AC%E8%AB%BE%E9%98%BF%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>夏威夷大學馬諾阿分校</t>
+    <t>夏威夷大学马诺阿分校</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/University_of_Hawaii%E2%80%93West_Oahu</t>
@@ -629,7 +629,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A5%8A%E7%99%BE%E7%BF%B0%E5%A4%A7%E5%AD%B8%E5%A4%8F%E5%A8%81%E5%A4%B7%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>楊百翰大學夏威夷分校</t>
+    <t>杨百翰大学夏威夷分校</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Chaminade_University_of_Honolulu</t>
@@ -641,7 +641,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E5%A4%AA%E5%B9%B3%E6%B4%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>夏威夷太平洋大學</t>
+    <t>夏威夷太平洋大学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Hawaii_Loa_College</t>
@@ -671,19 +671,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E5%B0%BC%E7%88%BE%C2%B7%E4%BA%95%E4%B8%8A%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>丹尼爾·井上國際機場</t>
+    <t>丹尼尔·井上国际机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%AC</t>
   </si>
   <si>
-    <t>東京</t>
+    <t>东京</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%98%AA</t>
   </si>
   <si>
-    <t>大阪</t>
+    <t>大坂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8D%E5%8F%A4%E5%B1%8B</t>
@@ -695,13 +695,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E5%8C%97</t>
   </si>
   <si>
-    <t>臺北</t>
+    <t>台北</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E7%88%BE</t>
   </si>
   <si>
-    <t>首爾</t>
+    <t>首尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%82%89%E5%B0%BC</t>
@@ -713,13 +713,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E7%88%BE%E6%9C%AC</t>
   </si>
   <si>
-    <t>墨爾本</t>
+    <t>墨尔本</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E8%98%AD</t>
   </si>
   <si>
-    <t>奧克蘭</t>
+    <t>奥克兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E6%B5%B7</t>
@@ -761,7 +761,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E7%B4%8D%E5%88%A9%E7%BE%85</t>
   </si>
   <si>
-    <t>路納利羅</t>
+    <t>路纳利罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%8B%89%E5%8D%A1%E7%93%A6</t>
@@ -773,7 +773,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%B0%8E%E9%81%8A</t>
   </si>
   <si>
-    <t>維基導遊</t>
+    <t>维基导游</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/OpenStreetMap</t>
@@ -797,19 +797,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%8C%97%E5%A4%8F%E5%A8%81%E5%A4%B7%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>西北夏威夷群島</t>
+    <t>西北夏威夷群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%87%B7%E5%B8%95%E8%83%A1</t>
   </si>
   <si>
-    <t>懷帕胡</t>
+    <t>怀帕胡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AA%80%E9%A6%99%E5%B1%B1%E5%B8%82%E7%B8%A3</t>
   </si>
   <si>
-    <t>檀香山市縣</t>
+    <t>檀香山市县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%8B%89%E6%B2%83%E5%8E%BF</t>
@@ -821,7 +821,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8C%82%E5%AE%9C%E7%B8%A3</t>
   </si>
   <si>
-    <t>茂宜縣</t>
+    <t>茂宜县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%83%E8%89%BE%E5%8E%BF</t>
@@ -833,7 +833,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E7%86%B1%E9%BB%9E</t>
   </si>
   <si>
-    <t>夏威夷熱點</t>
+    <t>夏威夷热点</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_volcanoes_in_the_Hawaiian_%E2%80%93_Emperor_seamount_chain</t>
@@ -845,7 +845,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E6%8B%89%E9%9F%8B%E5%8E%84%E7%81%AB%E5%B1%B1</t>
   </si>
   <si>
-    <t>基拉韋厄火山</t>
+    <t>基拉韦厄火山</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%92%E7%BA%B3%E7%BD%97%E4%BA%9A%E7%81%AB%E5%B1%B1</t>
@@ -863,13 +863,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%80%94%E5%B3%B6</t>
   </si>
   <si>
-    <t>中途島</t>
+    <t>中途岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%85%8B%E7%88%BE%E5%B3%B6</t>
   </si>
   <si>
-    <t>內克爾島</t>
+    <t>内克尔岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7-%E5%A4%A9%E7%9A%87%E6%B5%B7%E5%B1%B1%E9%93%BE</t>
@@ -887,13 +887,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9F%AF%E6%8B%89%E6%BC%A2%E6%B5%B7%E5%BA%95%E5%B1%B1</t>
   </si>
   <si>
-    <t>柯拉漢海底山</t>
+    <t>柯拉汉海底山</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A6%BA%E5%AF%BA%E6%B5%B7%E5%BA%95%E5%B1%B1</t>
   </si>
   <si>
-    <t>大覺寺海底山</t>
+    <t>大觉寺海底山</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%95%E7%89%B9%E5%BE%8B%E6%B5%B7%E5%BA%95%E5%B1%B1</t>
@@ -905,7 +905,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E8%80%83%E5%85%8B%E6%B5%B7%E5%BA%95%E5%B1%B1</t>
   </si>
   <si>
-    <t>漢考克海底山</t>
+    <t>汉考克海底山</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E5%8A%9F%E6%B5%B7%E5%BA%95%E5%B1%B1</t>
@@ -923,7 +923,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%BD%E6%98%8E%E6%B5%B7%E5%BA%95%E5%B1%B1</t>
   </si>
   <si>
-    <t>欽明海底山</t>
+    <t>钦明海底山</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%89%E5%AD%9D%E6%B5%B7%E5%BA%95%E5%B1%B1</t>
@@ -947,7 +947,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%87%89%E7%A5%9E%E6%B5%B7%E5%BA%95%E5%B1%B1</t>
   </si>
   <si>
-    <t>應神海底山</t>
+    <t>应神海底山</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8E%A8%E5%8F%A4%E6%B5%B7%E5%BA%95%E5%B1%B1</t>
@@ -977,7 +977,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%8B%92%E5%8D%A1%E6%8B%89%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>海勒卡拉國家公園</t>
+    <t>海勒卡拉国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E5%B1%B1</t>
@@ -989,7 +989,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
   </si>
   <si>
-    <t>美國行政區劃</t>
+    <t>美国行政区划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%8B%89%E5%B7%B4%E9%A9%AC%E5%B7%9E</t>
@@ -1001,7 +1001,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E</t>
   </si>
   <si>
-    <t>亞利桑那州</t>
+    <t>亚利桑那州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%82%AF%E8%89%B2%E5%B7%9E</t>
@@ -1019,7 +1019,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%B7%9E</t>
   </si>
   <si>
-    <t>科羅拉多州</t>
+    <t>科罗拉多州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E4%B9%83%E7%8B%84%E5%85%8B%E5%B7%9E</t>
@@ -1043,7 +1043,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>喬治亞州</t>
+    <t>乔治亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E8%BE%BE%E8%8D%B7%E5%B7%9E</t>
@@ -1073,7 +1073,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E</t>
   </si>
   <si>
-    <t>堪薩斯州</t>
+    <t>堪萨斯州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%A1%94%E5%9F%BA%E5%B7%9E</t>
@@ -1103,7 +1103,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E8%96%A9%E8%AB%B8%E5%A1%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>麻薩諸塞州</t>
+    <t>麻萨诸塞州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E6%AD%87%E6%A0%B9%E5%B7%9E</t>
@@ -1115,7 +1115,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%98%87%E9%81%94%E5%B7%9E</t>
   </si>
   <si>
-    <t>明尼蘇達州</t>
+    <t>明尼苏达州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E5%B7%9E</t>
@@ -1127,7 +1127,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%98%87%E9%87%8C%E5%B7%9E</t>
   </si>
   <si>
-    <t>密蘇里州</t>
+    <t>密苏里州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%A4%A7%E6%8B%BF%E5%B7%9E</t>
@@ -1139,7 +1139,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
   </si>
   <si>
-    <t>內布拉斯加州</t>
+    <t>内布拉斯加州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%85%E5%8D%8E%E8%BE%BE%E5%B7%9E</t>
@@ -1193,7 +1193,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E</t>
   </si>
   <si>
-    <t>奧克拉荷馬州</t>
+    <t>奥克拉荷马州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%8B%92%E5%86%88%E5%B7%9E</t>
@@ -1211,7 +1211,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B7%E5%B3%B6%E5%B7%9E</t>
   </si>
   <si>
-    <t>羅德島州</t>
+    <t>罗德岛州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E</t>
@@ -1265,7 +1265,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>西維吉尼亞州</t>
+    <t>西维吉尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%96%AF%E5%BA%B7%E8%BE%9B%E5%B7%9E</t>
@@ -1283,7 +1283,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>聯邦地區</t>
+    <t>联邦地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E7%89%B9%E5%8C%BA</t>
@@ -1295,19 +1295,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B3%B6%E5%B6%BC%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>島嶼地區</t>
+    <t>岛屿地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E8%96%A9%E6%91%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>美屬薩摩亞</t>
+    <t>美属萨摩亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E5%B3%B6</t>
   </si>
   <si>
-    <t>關島</t>
+    <t>关岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%A9%AC%E9%87%8C%E4%BA%9A%E7%BA%B3%E7%BE%A4%E5%B2%9B</t>
@@ -1325,7 +1325,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>美屬維爾京群島</t>
+    <t>美属维尔京群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%AC%E5%9C%9F%E5%A4%96%E5%B0%8F%E5%B2%9B%E5%B1%BF</t>
@@ -1337,7 +1337,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%85%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>威克島</t>
+    <t>威克岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%E6%96%AF%E9%A1%BF%E7%8E%AF%E7%A4%81</t>
@@ -1355,25 +1355,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E9%82%81%E6%8B%89%E7%92%B0%E7%A4%81</t>
   </si>
   <si>
-    <t>帕邁拉環礁</t>
+    <t>帕迈拉环礁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%88%E7%B6%AD%E6%96%AF%E5%B3%B6</t>
   </si>
   <si>
-    <t>賈維斯島</t>
+    <t>贾维斯岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E5%85%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>貝克島</t>
+    <t>贝克岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%AA%E8%98%AD%E5%B3%B6</t>
   </si>
   <si>
-    <t>豪蘭島</t>
+    <t>豪兰岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E7%93%A6%E8%90%A8%E5%B2%9B</t>
@@ -1403,55 +1403,52 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B2%9B%E5%B1%BF</t>
   </si>
   <si>
-    <t>岛屿</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%95%99%E7%94%B3%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>阿留申群島</t>
+    <t>阿留申群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%85%8B%E6%96%AF%E7%BE%A4%E5%B3%B6_(%E9%98%BF%E6%8B%89%E6%96%AF%E5%8A%A0)</t>
   </si>
   <si>
-    <t>福克斯群島 (阿拉斯加)</t>
+    <t>福克斯群岛 (阿拉斯加)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E5%B1%B1%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>四山群島</t>
+    <t>四山群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%BE%B7%E7%83%88%E4%BA%9E%E8%AB%BE%E5%A4%AB%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>安德烈亞諾夫群島</t>
+    <t>安德烈亚诺夫群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E7%89%B9%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>拉特群島</t>
+    <t>拉特群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E7%88%BE%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>尼爾群島</t>
+    <t>尼尔群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E6%9B%BC%E5%A4%9A%E7%88%BE%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>科曼多爾群島</t>
+    <t>科曼多尔群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%83%E5%B3%B6%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>千島群島</t>
+    <t>千岛群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%8D%83%E5%B2%9B%E7%BE%A4%E5%B2%9B</t>
@@ -1469,31 +1466,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BA%AB%E9%A0%81%E5%B3%B6</t>
   </si>
   <si>
-    <t>庫頁島</t>
+    <t>库页岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%9A%E5%A1%94%E7%88%BE%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>尚塔爾群島</t>
+    <t>尚塔尔群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%E5%B3%B6</t>
   </si>
   <si>
-    <t>約翰島</t>
+    <t>约翰岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%8B%89%E9%87%91%E6%96%AF%E5%85%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>卡拉金斯克島</t>
+    <t>卡拉金斯克岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%8B%E7%88%BE%E9%9C%8D%E5%9C%96%E7%BE%85%E5%A4%AB%E5%B3%B6</t>
   </si>
   <si>
-    <t>韋爾霍圖羅夫島</t>
+    <t>韦尔霍图罗夫岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E5%8D%A1%E5%A7%86%E8%BD%A6%E8%87%A3%E5%B2%9B</t>
@@ -1505,25 +1502,25 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E7%89%B9%E6%A0%BC%E8%98%AD%E5%B3%B6</t>
   </si>
   <si>
-    <t>伊特格蘭島</t>
+    <t>伊特格兰岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%8B%9E%E5%80%AB%E6%96%AF%E5%B3%B6</t>
   </si>
   <si>
-    <t>聖勞倫斯島</t>
+    <t>圣劳伦斯岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%AA%E5%A5%A7%E7%B1%B3%E5%BE%B7%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>迪奧米德群島</t>
+    <t>迪奥米德群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E9%A6%AC%E4%BF%AE%E5%B3%B6</t>
   </si>
   <si>
-    <t>聖馬修島</t>
+    <t>圣马修岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%87%8C%E6%AF%94%E6%B4%9B%E5%A4%AB%E7%BE%A4%E5%B2%9B</t>
@@ -1547,13 +1544,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%9C%96%E7%88%BE%E7%89%B9%E5%B3%B6_(%E9%98%BF%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E)</t>
   </si>
   <si>
-    <t>斯圖爾特島 (阿拉斯加州)</t>
+    <t>斯图尔特岛 (阿拉斯加州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E9%82%81%E5%85%8B%E7%88%BE%E5%B3%B6</t>
   </si>
   <si>
-    <t>聖邁克爾島</t>
+    <t>圣迈克尔岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%9D%E6%96%AF%E5%8D%9A%E6%B4%9B%E5%B2%9B</t>
@@ -1571,31 +1568,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%88%92%E9%A6%AC%E9%87%91%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>舒馬金群島</t>
+    <t>舒马金群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%B1%B3%E8%BF%AA%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>塞米迪群島</t>
+    <t>塞米迪群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%87%E9%87%8C%E7%A7%91%E5%A4%AB%E5%B3%B6</t>
   </si>
   <si>
-    <t>奇里科夫島</t>
+    <t>奇里科夫岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E8%BF%AA%E4%BA%9E%E5%85%8B%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>科迪亞克群島</t>
+    <t>科迪亚克群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%8F%A4%E6%96%AF%E4%B8%81%E7%81%AB%E5%B1%B1</t>
   </si>
   <si>
-    <t>奧古斯丁火山</t>
+    <t>奥古斯丁火山</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Kalgin_Island</t>
@@ -1607,19 +1604,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%A1%94%E5%8F%A4%E5%B3%B6_(%E9%98%BF%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E)</t>
   </si>
   <si>
-    <t>蒙塔古島 (阿拉斯加州)</t>
+    <t>蒙塔古岛 (阿拉斯加州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A3%E6%AC%BD%E5%B8%83%E9%AD%AF%E5%85%8B%E5%B3%B6_(%E9%98%BF%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E)</t>
   </si>
   <si>
-    <t>欣欽布魯克島 (阿拉斯加州)</t>
+    <t>欣钦布鲁克岛 (阿拉斯加州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%AD%B7%E5%B1%B1%E5%A4%A7%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>亞歷山大群島</t>
+    <t>亚历山大群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E8%BE%BE%E7%93%9C%E4%BE%9D</t>
@@ -1637,19 +1634,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%BE%B9%E5%B3%B6</t>
   </si>
   <si>
-    <t>波徹島</t>
+    <t>波彻岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E7%89%B9%E5%B3%B6_(%E5%8A%A0%E6%8B%BF%E5%A4%A7)</t>
   </si>
   <si>
-    <t>皮特島 (加拿大)</t>
+    <t>皮特岛 (加拿大)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8F%AD%E5%85%8B%E6%96%AF%E5%B3%B6_(%E5%8D%91%E6%96%AF%E7%9C%81)</t>
   </si>
   <si>
-    <t>班克斯島 (卑斯省)</t>
+    <t>班克斯岛 (卑斯省)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Hawkesbury_Island</t>
@@ -1661,13 +1658,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%85%AC%E4%B8%BB%E5%B3%B6</t>
   </si>
   <si>
-    <t>大公主島</t>
+    <t>大公主岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BA%AB%E5%93%A5%E8%8F%AF%E5%B3%B6</t>
   </si>
   <si>
-    <t>溫哥華島</t>
+    <t>温哥华岛</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Discovery_Islands</t>
@@ -1685,19 +1682,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%83%A1%E5%AE%89%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>聖胡安群島</t>
+    <t>圣胡安群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%9E%E5%B3%B6%E5%BC%A7</t>
   </si>
   <si>
-    <t>東亞島弧</t>
+    <t>东亚岛弧</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E5%88%97%E5%B3%B6</t>
   </si>
   <si>
-    <t>日本列島</t>
+    <t>日本列岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E5%B7%9E</t>
@@ -1709,7 +1706,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E5%9C%8B</t>
   </si>
   <si>
-    <t>四國</t>
+    <t>四国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%9D%E5%B7%9E_(%E6%97%A5%E6%9C%AC)</t>
@@ -1727,61 +1724,61 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%91%E5%B3%B6%E5%88%97%E5%B3%B6</t>
   </si>
   <si>
-    <t>甑島列島</t>
+    <t>甑岛列岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E8%8D%89%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>天草群島</t>
+    <t>天草群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B7%E5%A5%B3%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>男女群島</t>
+    <t>男女群岛</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E9%B3%A5%E5%B3%B6_(%E9%95%B7%E5%B4%8E%E7%9C%8C)</t>
   </si>
   <si>
-    <t>ja-鳥島 (長崎県)</t>
+    <t>ja-鸟岛 (长崎県)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E5%B3%B6%E5%88%97%E5%B3%B6</t>
   </si>
   <si>
-    <t>五島列島</t>
+    <t>五岛列岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%9D%E5%8D%81%E4%B9%9D%E5%B3%B6_(%E8%A5%BF%E6%B5%B7%E5%9C%8B%E7%AB%8B%E5%85%AC%E5%9C%92)</t>
   </si>
   <si>
-    <t>九十九島 (西海國立公園)</t>
+    <t>九十九岛 (西海国立公园)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E6%88%B6%E5%B3%B6</t>
   </si>
   <si>
-    <t>平戶島</t>
+    <t>平户岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%9C%88%E5%B3%B6</t>
   </si>
   <si>
-    <t>生月島</t>
+    <t>生月岛</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E5%BA%A6%E5%B3%B6</t>
   </si>
   <si>
-    <t>ja-度島</t>
+    <t>ja-度岛</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E7%9A%84%E5%B1%B1%E5%A4%A7%E5%B3%B6</t>
   </si>
   <si>
-    <t>ja-的山大島</t>
+    <t>ja-的山大岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%B9%E9%A9%AC%E5%B2%9B</t>
@@ -1793,67 +1790,67 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A3%B9%E5%B2%90%E5%B3%B6</t>
   </si>
   <si>
-    <t>壹岐島</t>
+    <t>壹岐岛</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E9%B7%B9%E5%B3%B6_(%E9%95%B7%E5%B4%8E%E7%9C%8C)</t>
   </si>
   <si>
-    <t>ja-鷹島 (長崎県)</t>
+    <t>ja-鹰岛 (长崎県)</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E7%A6%8F%E5%B3%B6_(%E9%95%B7%E5%B4%8E%E7%9C%8C)</t>
   </si>
   <si>
-    <t>ja-福島 (長崎県)</t>
+    <t>ja-福岛 (长崎県)</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E7%8E%84%E6%B5%B7%E8%AB%B8%E5%B3%B6</t>
   </si>
   <si>
-    <t>ja-玄海諸島</t>
+    <t>ja-玄海诸岛</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E5%BD%A6%E5%B3%B6</t>
   </si>
   <si>
-    <t>ja-彦島</t>
+    <t>ja-彦岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%96%E6%B5%81%E5%B3%B6</t>
   </si>
   <si>
-    <t>巖流島</t>
+    <t>巖流岛</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E9%9D%92%E6%B5%B7%E5%B3%B6</t>
   </si>
   <si>
-    <t>ja-青海島</t>
+    <t>ja-青海岛</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E8%A6%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>ja-見島</t>
+    <t>ja-见岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9A%B1%E5%B2%90%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>隱岐群島</t>
+    <t>隐岐群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%A0%B9%E5%B3%B6</t>
   </si>
   <si>
-    <t>大根島</t>
+    <t>大根岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%83%BD%E7%99%BB%E5%B3%B6</t>
   </si>
   <si>
-    <t>能登島</t>
+    <t>能登岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%90%E6%B8%A1%E5%B2%9B</t>
@@ -1865,61 +1862,61 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B2%9F%E5%B3%B6</t>
   </si>
   <si>
-    <t>粟島</t>
+    <t>粟岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9B%E5%B3%B6</t>
   </si>
   <si>
-    <t>飛島</t>
+    <t>飞岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%A1%E5%B3%B6%E5%B0%8F%E5%B3%B6</t>
   </si>
   <si>
-    <t>渡島小島</t>
+    <t>渡岛小岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%A1%E5%B3%B6%E5%A4%A7%E5%B3%B6</t>
   </si>
   <si>
-    <t>渡島大島</t>
+    <t>渡岛大岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%B0%BB%E5%B3%B6</t>
   </si>
   <si>
-    <t>奧尻島</t>
+    <t>奥尻岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E8%B3%A3%E5%B3%B6</t>
   </si>
   <si>
-    <t>天賣島</t>
+    <t>天卖岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%87%92%E5%B0%BB%E5%B3%B6</t>
   </si>
   <si>
-    <t>燒尻島</t>
+    <t>烧尻岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E5%B0%BB%E5%B3%B6</t>
   </si>
   <si>
-    <t>利尻島</t>
+    <t>利尻岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%AE%E6%96%87%E5%B3%B6</t>
   </si>
   <si>
-    <t>禮文島</t>
+    <t>礼文岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E9%A9%A2%E5%B3%B6_(%E6%97%A5%E6%9C%AC)</t>
   </si>
   <si>
-    <t>海驢島 (日本)</t>
+    <t>海驴岛 (日本)</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E6%98%A5%E5%9B%BD%E5%B2%B1</t>
@@ -1931,43 +1928,43 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E9%B5%9C%E5%B1%85%E5%B3%B6</t>
   </si>
   <si>
-    <t>小鵜居島</t>
+    <t>小鹈居岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%B5%9C%E5%B1%85%E5%B3%B6</t>
   </si>
   <si>
-    <t>鵜居島</t>
+    <t>鹈居岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B6%AE%E6%9A%AE%E6%AD%B8%E5%B3%B6</t>
   </si>
   <si>
-    <t>嶮暮歸島</t>
+    <t>崄暮归岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%BB%91%E5%B3%B6_(%E5%8E%9A%E5%B2%B8%E7%94%BA)</t>
   </si>
   <si>
-    <t>大黑島 (厚岸町)</t>
+    <t>大黑岛 (厚岸町)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%A3%E4%BB%99%E6%B2%BC%E5%A4%A7%E5%B3%B6</t>
   </si>
   <si>
-    <t>氣仙沼大島</t>
+    <t>气仙沼大岛</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E5%87%BA%E5%B3%B6_(%E5%AE%AE%E5%9F%8E%E7%9C%8C)</t>
   </si>
   <si>
-    <t>ja-出島 (宮城県)</t>
+    <t>ja-出岛 (宫城県)</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E6%B1%9F%E5%B3%B6_(%E5%AE%AE%E5%9F%8E%E7%9C%8C)</t>
   </si>
   <si>
-    <t>ja-江島 (宮城県)</t>
+    <t>ja-江岛 (宫城県)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Kinkasan</t>
@@ -1991,31 +1988,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%BE%E5%B3%B6</t>
   </si>
   <si>
-    <t>松島</t>
+    <t>松岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%9F%E4%B9%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>江之島</t>
+    <t>江之岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%9D%E5%B3%B6</t>
   </si>
   <si>
-    <t>初島</t>
+    <t>初岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E8%B1%86%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>伊豆群島</t>
+    <t>伊豆群岛</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E6%B7%A1%E5%B3%B6_(%E6%B2%BC%E6%B4%A5%E5%B8%82)</t>
   </si>
   <si>
-    <t>ja-淡島 (沼津市)</t>
+    <t>ja-淡岛 (沼津市)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Kami-shima</t>
@@ -2027,7 +2024,7 @@
     <t>https://ja.wikipedia.org/wiki/%E4%B8%89%E6%B2%B3%E5%A4%A7%E5%B3%B6</t>
   </si>
   <si>
-    <t>ja-三河大島</t>
+    <t>ja-三河大岛</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/T%C5%8Dshijima</t>
@@ -2057,13 +2054,13 @@
     <t>https://ja.wikipedia.org/wiki/%E9%96%93%E5%B4%8E%E5%B3%B6</t>
   </si>
   <si>
-    <t>ja-間崎島</t>
+    <t>ja-间崎岛</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E9%88%B4%E5%B3%B6</t>
   </si>
   <si>
-    <t>ja-鈴島</t>
+    <t>ja-铃岛</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Kii_%C5%8Cshima</t>
@@ -2075,13 +2072,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%BC%E5%B3%B6</t>
   </si>
   <si>
-    <t>沼島</t>
+    <t>沼岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>友島</t>
+    <t>友岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B7%A1%E8%B7%AF%E5%B2%9B</t>
@@ -2093,19 +2090,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%B6%E5%B3%B6%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>家島群島</t>
+    <t>家岛群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E8%B1%86%E5%B3%B6_(%E6%97%A5%E6%9C%AC)</t>
   </si>
   <si>
-    <t>小豆島 (日本)</t>
+    <t>小豆岛 (日本)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%B3%B6%E8%AB%B8%E5%B3%B6</t>
   </si>
   <si>
-    <t>直島諸島</t>
+    <t>直岛诸岛</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Shiwaku_Islands</t>
@@ -2123,7 +2120,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%97%9D%E4%BA%88%E8%AB%B8%E5%B3%B6</t>
   </si>
   <si>
-    <t>藝予諸島</t>
+    <t>艺予诸岛</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/B%C5%8Dyo_Islands</t>
@@ -2135,181 +2132,181 @@
     <t>https://ja.wikipedia.org/wiki/%E7%AC%A0%E6%88%B8%E5%B3%B6</t>
   </si>
   <si>
-    <t>ja-笠戸島</t>
+    <t>ja-笠戸岛</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E9%BB%92%E9%AB%AA%E5%B3%B6</t>
   </si>
   <si>
-    <t>ja-黒髪島</t>
+    <t>ja-黒髪岛</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E5%A4%A7%E6%B4%A5%E5%B3%B6</t>
   </si>
   <si>
-    <t>ja-大津島</t>
+    <t>ja-大津岛</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E5%90%91%E5%B3%B6_(%E4%BD%90%E8%B3%80%E7%9C%8C)</t>
   </si>
   <si>
-    <t>ja-向島 (佐賀県)</t>
+    <t>ja-向岛 (佐贺県)</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E5%A7%AB%E5%B3%B6_(%E5%A4%A7%E5%88%86%E7%9C%8C)</t>
   </si>
   <si>
-    <t>ja-姫島 (大分県)</t>
+    <t>ja-姫岛 (大分県)</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E6%97%A5%E6%8C%AF%E5%B3%B6</t>
   </si>
   <si>
-    <t>ja-日振島</t>
+    <t>ja-日振岛</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E6%88%B8%E5%B3%B6_(%E6%84%9B%E5%AA%9B%E7%9C%8C)</t>
   </si>
   <si>
-    <t>ja-戸島 (愛媛県)</t>
+    <t>ja-戸岛 (爱媛県)</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E4%BF%9D%E6%88%B8%E5%B3%B6</t>
   </si>
   <si>
-    <t>ja-保戸島</t>
+    <t>ja-保戸岛</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E5%A4%A7%E5%85%A5%E5%B3%B6</t>
   </si>
   <si>
-    <t>ja-大入島</t>
+    <t>ja-大入岛</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E4%BC%8A%E5%B3%B6_(%E9%98%BF%E5%8D%97%E5%B8%82)</t>
   </si>
   <si>
-    <t>ja-伊島 (阿南市)</t>
+    <t>ja-伊岛 (阿南市)</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E5%87%BA%E7%BE%BD%E5%B3%B6</t>
   </si>
   <si>
-    <t>ja-出羽島</t>
+    <t>ja-出羽岛</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E6%B2%96%E3%81%AE%E5%B3%B6_(%E9%AB%98%E7%9F%A5%E7%9C%8C)</t>
   </si>
   <si>
-    <t>ja-沖の島 (高知県)</t>
+    <t>ja-冲の岛 (高知県)</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E5%B3%B6%E6%B5%A6%E5%B3%B6</t>
   </si>
   <si>
-    <t>ja-島浦島</t>
+    <t>ja-岛浦岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%90%89%E7%90%83%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>琉球群島</t>
+    <t>琉球群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%9A%85%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>大隅群島</t>
+    <t>大隅群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%90%E5%99%B6%E5%96%87%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>吐噶喇群島</t>
+    <t>吐噶喇群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%84%E7%BE%8E%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>奄美群島</t>
+    <t>奄美群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%96%E7%B9%A9%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>沖繩群島</t>
+    <t>冲绳群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%AE%E5%8F%A4%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>宮古群島</t>
+    <t>宫古群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AB%E9%87%8D%E5%B1%B1%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>八重山群島</t>
+    <t>八重山群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%9D%B1%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>大東群島</t>
+    <t>大东群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E5%B3%B6%E5%B6%BC</t>
   </si>
   <si>
-    <t>台灣島嶼</t>
+    <t>台湾岛屿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3</t>
   </si>
   <si>
-    <t>臺灣</t>
+    <t>台湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%8E%E6%B9%96%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>澎湖群島</t>
+    <t>澎湖群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%A3%E9%AD%9A%E8%87%BA%E5%88%97%E5%B6%BC</t>
   </si>
   <si>
-    <t>釣魚臺列嶼</t>
+    <t>钓鱼台列屿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%96%B9%E4%B8%89%E5%B3%B6</t>
   </si>
   <si>
-    <t>北方三島</t>
+    <t>北方三岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E9%9A%86%E5%B6%BC</t>
   </si>
   <si>
-    <t>基隆嶼</t>
+    <t>基隆屿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%92%8C%E5%B9%B3%E5%B3%B6</t>
   </si>
   <si>
-    <t>和平島</t>
+    <t>和平岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BE%9C%E5%B1%B1%E5%B3%B6</t>
   </si>
   <si>
-    <t>龜山島</t>
+    <t>龟山岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%9A%E5%8D%9C%E8%98%AD%E5%B3%B6</t>
   </si>
   <si>
-    <t>奚卜蘭島</t>
+    <t>奚卜兰岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E4%BB%99%E5%8F%B0</t>
@@ -2321,49 +2318,49 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%A0%E5%B3%B6</t>
   </si>
   <si>
-    <t>綠島</t>
+    <t>绿岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%AD%E5%B6%BC</t>
   </si>
   <si>
-    <t>蘭嶼</t>
+    <t>兰屿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E8%98%AD%E5%B6%BC</t>
   </si>
   <si>
-    <t>小蘭嶼</t>
+    <t>小兰屿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E5%8D%97%E5%B8%82%E7%AC%AC%E4%BA%94%E6%9C%9F%E5%B8%82%E5%9C%B0%E9%87%8D%E5%8A%83%E5%8D%80</t>
   </si>
   <si>
-    <t>臺南市第五期市地重劃區</t>
+    <t>台南市第五期市地重划区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%81%E5%85%89%E5%B3%B6</t>
   </si>
   <si>
-    <t>漁光島</t>
+    <t>渔光岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%97%E6%B4%A5%E5%B3%B6</t>
   </si>
   <si>
-    <t>旗津島</t>
+    <t>旗津岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%90%89%E7%90%83%E5%B6%BC</t>
   </si>
   <si>
-    <t>琉球嶼</t>
+    <t>琉球屿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B3%B6</t>
   </si>
   <si>
-    <t>島</t>
+    <t>岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%81</t>
@@ -2381,25 +2378,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8F%8D%E5%B3%B6</t>
   </si>
   <si>
-    <t>珍島</t>
+    <t>珍岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%9F%E8%8F%AF%E5%B3%B6</t>
   </si>
   <si>
-    <t>江華島</t>
+    <t>江华岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%B5%B7%E5%B3%B6</t>
   </si>
   <si>
-    <t>南海島</t>
+    <t>南海岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AC%B1%E9%99%B5%E5%B3%B6</t>
   </si>
   <si>
-    <t>鬱陵島</t>
+    <t>郁陵岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%B5%B7%E4%BA%94%E5%B2%9B</t>
@@ -2411,7 +2408,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%B2%99%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>加沙群島</t>
+    <t>加沙群岛</t>
   </si>
   <si>
     <t>https://ko.wikipedia.org/wiki/%EC%99%B8%EC%97%B0%EC%97%B4%EB%8F%84</t>
@@ -2465,19 +2462,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E4%BB%81%E5%B0%BC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>歐仁尼群島</t>
+    <t>欧仁尼群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8C%E5%A7%86%E6%96%AF%E5%9F%BA%E6%9F%AF%E8%96%A9%E7%A7%91%E5%A4%AB%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>里姆斯基柯薩科夫群島</t>
+    <t>里姆斯基柯萨科夫群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E5%B3%B6</t>
   </si>
   <si>
-    <t>獨島</t>
+    <t>独岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E5%B2%A9%E7%A4%81</t>
@@ -2543,7 +2540,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%97%A5%E5%B3%B6</t>
   </si>
   <si>
-    <t>南日島</t>
+    <t>南日岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B9%84%E6%B4%B2%E5%B2%9B</t>
@@ -2555,55 +2552,55 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E9%96%80%E7%B8%A3</t>
   </si>
   <si>
-    <t>金門縣</t>
+    <t>金门县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%A5%96%E5%88%97%E5%B3%B6</t>
   </si>
   <si>
-    <t>馬祖列島</t>
+    <t>马祖列岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B1%E5%9C%B3%E5%B3%B6%E5%B6%BC</t>
   </si>
   <si>
-    <t>深圳島嶼</t>
+    <t>深圳岛屿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8F%A0%E6%B5%B7%E5%B3%B6%E5%B6%BC</t>
   </si>
   <si>
-    <t>珠海島嶼</t>
+    <t>珠海岛屿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%95%E9%A0%AD%E5%B3%B6%E5%B6%BC</t>
   </si>
   <si>
-    <t>汕頭島嶼</t>
+    <t>汕头岛屿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%95%E5%B0%BE%E5%B3%B6%E5%B6%BC</t>
   </si>
   <si>
-    <t>汕尾島嶼</t>
+    <t>汕尾岛屿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E5%B3%B6%E5%B6%BC</t>
   </si>
   <si>
-    <t>香港島嶼</t>
+    <t>香港岛屿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80%E5%B3%B6%E5%B6%BC</t>
   </si>
   <si>
-    <t>澳門島嶼</t>
+    <t>澳门岛屿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E7%AC%A0%E5%8E%9F%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>小笠原群島</t>
+    <t>小笠原群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%B8%9F%E5%B2%9B</t>
@@ -2615,13 +2612,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%96%E4%B9%8B%E9%B3%A5%E7%A4%81</t>
   </si>
   <si>
-    <t>沖之鳥礁</t>
+    <t>冲之鸟礁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%B5%B7%E8%AB%B8%E5%B3%B6</t>
   </si>
   <si>
-    <t>南海諸島</t>
+    <t>南海诸岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%8D%97%E5%B2%9B</t>
@@ -2663,7 +2660,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E5%9C%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>富國島</t>
+    <t>富国岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%86%E4%BB%91%E7%BE%A4%E5%B2%9B</t>
@@ -2681,7 +2678,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%88%E5%85%AC%E5%B3%B6</t>
   </si>
   <si>
-    <t>戈公島</t>
+    <t>戈公岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%81%E9%AA%A8%E5%B2%9B</t>
@@ -2705,25 +2702,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E7%8F%8A%E7%91%9A%E5%B3%B6</t>
   </si>
   <si>
-    <t>小珊瑚島</t>
+    <t>小珊瑚岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%B9%E5%B3%B6_(%E6%B3%B0%E5%9C%8B)</t>
   </si>
   <si>
-    <t>竹島 (泰國)</t>
+    <t>竹岛 (泰国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BE%9C%E5%B3%B6_(%E6%B3%B0%E5%9C%8B)</t>
   </si>
   <si>
-    <t>龜島 (泰國)</t>
+    <t>龟岛 (泰国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E5%B2%B8%E5%B3%B6</t>
   </si>
   <si>
-    <t>帕岸島</t>
+    <t>帕岸岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%81%E6%B2%99%E6%A2%85%E5%B2%9B</t>
@@ -2753,7 +2750,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BE%86%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>馬來群島</t>
+    <t>马来群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%B7%BD%E4%BB%96%E7%BE%A4%E5%B2%9B</t>
@@ -2771,43 +2768,43 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E7%89%B9%E5%B3%B6</t>
   </si>
   <si>
-    <t>勞特島</t>
+    <t>劳特岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%B8%83%E5%BA%AB%E5%B3%B6_(%E5%A9%86%E7%BE%85%E6%B4%B2)</t>
   </si>
   <si>
-    <t>塞布庫島 (婆羅洲)</t>
+    <t>塞布库岛 (婆罗洲)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BA%9E%E5%8D%A1%E9%87%8C%E9%A6%AC%E5%A1%94%E5%B3%B6</t>
   </si>
   <si>
-    <t>馬亞卡里馬塔島</t>
+    <t>马亚卡里马塔岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E9%87%8C%E9%A6%AC%E5%A1%94%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>卡里馬塔群島</t>
+    <t>卡里马塔群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%B3%E5%B7%B4%E8%BF%AA%E5%B3%B6</t>
   </si>
   <si>
-    <t>石巴迪島</t>
+    <t>石巴迪岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B4%E5%A5%B4%E5%B9%B2%E5%B3%B6</t>
   </si>
   <si>
-    <t>奴奴干島</t>
+    <t>奴奴干岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%93%E6%8B%89%E6%A0%B9%E5%B3%B6</t>
   </si>
   <si>
-    <t>打拉根島</t>
+    <t>打拉根岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E9%97%BD%E5%B2%9B</t>
@@ -2825,43 +2822,43 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AD%AF%E5%B8%95%E5%B3%B6</t>
   </si>
   <si>
-    <t>魯帕島</t>
+    <t>鲁帕岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9B%E5%8A%A0%E9%BA%97%E5%B3%B6</t>
   </si>
   <si>
-    <t>望加麗島</t>
+    <t>望加丽岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%9D%B1%E5%B3%B6</t>
   </si>
   <si>
-    <t>巴東島</t>
+    <t>巴东岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%90%8D%E4%B8%81%E5%AE%9C%E5%B3%B6</t>
   </si>
   <si>
-    <t>直名丁宜島</t>
+    <t>直名丁宜岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%97%E6%A1%91%E5%B3%B6</t>
   </si>
   <si>
-    <t>朗桑島</t>
+    <t>朗桑岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%B7%B4%E9%82%A3%E5%B3%B6</t>
   </si>
   <si>
-    <t>卡巴那島</t>
+    <t>卡巴那岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%96%E5%BA%B7%E4%BC%AF%E8%A5%BF%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>圖康伯西群島</t>
+    <t>图康伯西群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8A%A0%E5%9D%A1%E5%B2%9B</t>
@@ -2873,25 +2870,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E6%95%8F%E5%B3%B6</t>
   </si>
   <si>
-    <t>烏敏島</t>
+    <t>乌敏岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%89%E5%B3%B6</t>
   </si>
   <si>
-    <t>德光島</t>
+    <t>德光岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A3%95%E5%BB%8A%E5%B3%B6</t>
   </si>
   <si>
-    <t>裕廊島</t>
+    <t>裕廊岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E6%B7%98%E6%B2%99</t>
   </si>
   <si>
-    <t>聖淘沙</t>
+    <t>圣淘沙</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E6%8B%89%E5%A8%81%E8%A5%BF%E5%B2%9B</t>
@@ -2903,43 +2900,43 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E5%8B%9E%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>塔勞群島</t>
+    <t>塔劳群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A1%91%E7%BE%A9%E8%B5%AB%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>桑義赫群島</t>
+    <t>桑义赫群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E5%90%89%E5%AE%89%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>托吉安群島</t>
+    <t>托吉安群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%82%A6%E8%93%8B%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>邦蓋群島</t>
+    <t>邦盖群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%8B%89%E4%BA%9E%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>塞拉亞群島</t>
+    <t>塞拉亚群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E6%B2%83%E5%B0%BC%E5%B3%B6</t>
   </si>
   <si>
-    <t>沃沃尼島</t>
+    <t>沃沃尼岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%86%E7%B4%8D%E5%B3%B6</t>
   </si>
   <si>
-    <t>穆納島</t>
+    <t>穆纳岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%A1%BF%E5%B2%9B</t>
@@ -2969,43 +2966,43 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%9F%8B%E5%AE%89%E5%B3%B6</t>
   </si>
   <si>
-    <t>巴韋安島</t>
+    <t>巴韦安岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E5%8E%84%E5%AE%89%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>康厄安群島</t>
+    <t>康厄安群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%82%A6%E5%8A%A0%E5%B3%B6</t>
   </si>
   <si>
-    <t>邦加島</t>
+    <t>邦加岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%BF%E9%87%8C%E6%B4%9E%E5%B3%B6</t>
   </si>
   <si>
-    <t>勿里洞島</t>
+    <t>勿里洞岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E5%9C%9F%E7%B4%8D%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>納土納群島</t>
+    <t>纳土纳群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%8D%97%E5%B7%B4%E6%96%AF%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>阿南巴斯群島</t>
+    <t>阿南巴斯群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E5%8A%A0%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>林加群島</t>
+    <t>林加群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E5%B7%BD%E4%BB%96%E7%BE%A4%E5%B2%9B</t>
@@ -3023,31 +3020,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8F%80%E5%B0%BC%E9%81%94%E5%B3%B6</t>
   </si>
   <si>
-    <t>珀尼達島</t>
+    <t>珀尼达岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BE%8D%E7%9B%AE%E5%B3%B6</t>
   </si>
   <si>
-    <t>龍目島</t>
+    <t>龙目岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%BE%E5%B7%B4%E5%93%87%E5%B3%B6</t>
   </si>
   <si>
-    <t>松巴哇島</t>
+    <t>松巴哇岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E7%B4%84%E5%B3%B6</t>
   </si>
   <si>
-    <t>莫約島</t>
+    <t>莫约岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E8%8E%AB%E5%A4%9A%E5%B3%B6</t>
   </si>
   <si>
-    <t>科莫多島</t>
+    <t>科莫多岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E5%8D%A1%E5%B2%9B</t>
@@ -3065,37 +3062,37 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E6%B4%9B%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>索洛群島</t>
+    <t>索洛群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%B4%9B%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>阿洛群島</t>
+    <t>阿洛群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%99%B6%E7%BE%85%E5%B3%B6</t>
   </si>
   <si>
-    <t>阿陶羅島</t>
+    <t>阿陶罗岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%BE%E5%B7%B4%E5%B3%B6</t>
   </si>
   <si>
-    <t>松巴島</t>
+    <t>松巴岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E6%AD%A6%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>薩武群島</t>
+    <t>萨武群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%9C%B0%E5%B3%B6</t>
   </si>
   <si>
-    <t>羅地島</t>
+    <t>罗地岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%9D%E6%B1%B6</t>
@@ -3107,25 +3104,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%8D%97%E7%BE%A4%E5%B3%B6_(%E5%8D%B0%E5%BA%A6%E5%B0%BC%E8%A5%BF%E4%BA%9E)</t>
   </si>
   <si>
-    <t>西南群島 (印度尼西亞)</t>
+    <t>西南群岛 (印度尼西亚)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%92%E8%92%82%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>勒蒂群島</t>
+    <t>勒蒂群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B7%B4%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>巴巴群島</t>
+    <t>巴巴群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E5%AF%A7%E5%B7%B4%E7%88%BE%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>塔寧巴爾群島</t>
+    <t>塔宁巴尔群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E5%AE%BE</t>
@@ -3137,13 +3134,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%91%82%E5%AE%8B</t>
   </si>
   <si>
-    <t>呂宋</t>
+    <t>吕宋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E6%B2%99%E9%84%A2%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>米沙鄢群島</t>
+    <t>米沙鄢群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A3%89%E5%85%B0%E8%80%81%E5%B2%9B</t>
@@ -3155,31 +3152,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%89%E6%9C%9B%E5%B3%B6</t>
   </si>
   <si>
-    <t>巴拉望島</t>
+    <t>巴拉望岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E9%83%BD%E6%B4%9B%E5%B3%B6</t>
   </si>
   <si>
-    <t>民都洛島</t>
+    <t>民都洛岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E4%B8%B9%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>巴丹群島</t>
+    <t>巴丹群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B8%83%E7%85%99%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>巴布煙群島</t>
+    <t>巴布烟群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E7%A5%BF%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>蘇祿群島</t>
+    <t>苏禄群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E9%B9%BF%E5%8A%A0%E7%BE%A4%E5%B2%9B</t>
@@ -3191,7 +3188,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E7%BE%85%E6%B3%B0%E5%B3%B6</t>
   </si>
   <si>
-    <t>摩羅泰島</t>
+    <t>摩罗泰岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E9%A9%AC%E9%BB%91%E6%8B%89%E5%B2%9B</t>
@@ -3203,25 +3200,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%8D%A0%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>巴占群島</t>
+    <t>巴占群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%AF%94%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>奧比群島</t>
+    <t>奥比群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E6%8B%89%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>蘇拉群島</t>
+    <t>苏拉群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%AD%AF%E5%B3%B6</t>
   </si>
   <si>
-    <t>布魯島</t>
+    <t>布鲁岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%85%B0%E5%B2%9B</t>
@@ -3245,37 +3242,37 @@
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E5%B8%95%E9%AD%AF%E9%98%BF%E5%B3%B6</t>
   </si>
   <si>
-    <t>薩帕魯阿島</t>
+    <t>萨帕鲁阿岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8F%AD%E9%81%94%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>班達群島</t>
+    <t>班达群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Gorong%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>Gorong群島</t>
+    <t>Gorong群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E5%9C%96%E8%B2%9D%E6%8B%89%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>瓦圖貝拉群島</t>
+    <t>瓦图贝拉群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E4%BC%8A%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>卡伊群島</t>
+    <t>卡伊群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%AD%AF%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>阿魯群島</t>
+    <t>阿鲁群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%A4%AA%E5%B9%B3%E6%B4%8B</t>
@@ -3287,7 +3284,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E9%87%8C%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>玻里尼西亞</t>
+    <t>玻里尼西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%A5%BF%E5%85%B0</t>
@@ -3305,13 +3302,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%B3%B6_(%E7%B4%90%E8%A5%BF%E8%98%AD)</t>
   </si>
   <si>
-    <t>北島 (紐西蘭)</t>
+    <t>北岛 (纽西兰)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%B3%B6_(%E6%96%B0%E8%A5%BF%E8%98%AD)</t>
   </si>
   <si>
-    <t>南島 (新西蘭)</t>
+    <t>南岛 (新西兰)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%A5%88%E5%B0%94%E6%96%AF%E7%BE%A4%E5%B2%9B</t>
@@ -3323,27 +3320,21 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%A9%E6%B4%BB%E7%AF%80%E5%B3%B6</t>
   </si>
   <si>
-    <t>復活節島</t>
+    <t>复活节岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E6%8B%89%E6%88%88%E9%BA%A5%E6%96%AF%E5%B3%B6</t>
   </si>
   <si>
-    <t>薩拉戈麥斯島</t>
+    <t>萨拉戈麦斯岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%80%94%E5%B2%9B</t>
   </si>
   <si>
-    <t>中途岛</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%85%8B%E5%B2%9B</t>
   </si>
   <si>
-    <t>威克岛</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%E6%96%AF%E9%A1%BF%E5%B2%9B</t>
   </si>
   <si>
@@ -3371,19 +3362,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E7%8E%BB%E9%87%8C%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>法屬玻里尼西亞</t>
+    <t>法属玻里尼西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%8B%E8%96%A9%E6%96%AF%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>馬克薩斯群島</t>
+    <t>马克萨斯群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>社會群島</t>
+    <t>社会群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E9%98%BF%E8%8E%AB%E5%9C%9F%E7%BE%A4%E5%B2%9B</t>
@@ -3401,7 +3392,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E5%9F%83</t>
   </si>
   <si>
-    <t>紐埃</t>
+    <t>纽埃</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%A9%AC%E5%BE%B7%E5%85%8B%E7%BE%A4%E5%B2%9B</t>
@@ -3425,9 +3416,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%9E%E8%90%A8%E6%91%A9%E4%BA%9A</t>
   </si>
   <si>
-    <t>美属萨摩亚</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E5%85%8B%E5%8A%B3</t>
   </si>
   <si>
@@ -3449,13 +3437,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%B3%B3%E5%87%B0%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>鳳凰群島</t>
+    <t>凤凰群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E5%88%A9%E6%96%AF%E5%92%8C%E5%AF%8C%E5%9C%96%E7%B4%8D</t>
   </si>
   <si>
-    <t>瓦利斯和富圖納</t>
+    <t>瓦利斯和富图纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E7%89%B9%E5%87%AF%E6%81%A9%E7%BE%A4%E5%B2%9B</t>
@@ -3473,31 +3461,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%8B%89%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>美拉尼西亞</t>
+    <t>美拉尼西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%B9%BE%E5%85%A7%E4%BA%9E</t>
   </si>
   <si>
-    <t>新幾內亞</t>
+    <t>新几内亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%B3%88%E5%AE%89%E5%B8%95%E7%89%B9%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>拉賈安帕特群島</t>
+    <t>拉贾安帕特群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E8%80%83%E6%BB%95%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>斯考滕群島</t>
+    <t>斯考滕群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%BD%AD%E5%B3%B6</t>
   </si>
   <si>
-    <t>亞彭島</t>
+    <t>亚彭岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%BE%E6%96%AF%E9%BA%A6%E7%BE%A4%E5%B2%9B</t>
@@ -3515,31 +3503,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%95%B6%E7%89%B9%E7%88%BE%E5%8D%A1%E6%96%AF%E6%89%98%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>當特爾卡斯托群島</t>
+    <t>当特尔卡斯托群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E7%BE%85%E5%B8%83%E9%87%8C%E6%81%A9%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>特羅布里恩群島</t>
+    <t>特罗布里恩群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8D%E5%BE%B7%E6%8B%89%E5%85%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>伍德拉克島</t>
+    <t>伍德拉克岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E8%A5%BF%E4%BA%9E%E5%BE%B7%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>路易西亞德群島</t>
+    <t>路易西亚德群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E9%9B%B7%E6%96%AF%E6%B5%B7%E5%B3%BD%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>托雷斯海峽群島</t>
+    <t>托雷斯海峡群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%85%8B%E9%B2%81%E6%96%AF%E7%BE%A4%E5%B2%9B</t>
@@ -3593,9 +3581,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%B3%E5%B2%9B</t>
   </si>
   <si>
-    <t>关岛</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E7%BD%97%E6%9E%97%E7%BE%A4%E5%B2%9B</t>
   </si>
   <si>
@@ -3635,7 +3620,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E6%96%AF%E9%A6%AC%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>塔斯馬尼亞州</t>
+    <t>塔斯马尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E8%AF%BA%E7%BE%A4%E5%B2%9B</t>
@@ -3665,25 +3650,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E9%9D%88%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>聖靈群島</t>
+    <t>圣灵群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8F%8A%E7%91%9A%E6%B5%B7%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>珊瑚海群島</t>
+    <t>珊瑚海群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E9%9B%B7%E6%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>弗雷澤島</t>
+    <t>弗雷泽岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%AA%E5%8B%B3%E7%88%B5%E5%B3%B6</t>
   </si>
   <si>
-    <t>豪勳爵島</t>
+    <t>豪勳爵岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A2%8B%E9%BC%A0%E5%B2%9B</t>
@@ -3725,7 +3710,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%82%A6%E8%92%82%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>邦蒂群島</t>
+    <t>邦蒂群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E8%92%82%E6%B3%A2%E5%BE%B7%E6%96%AF%E7%BE%A4%E5%B2%9B</t>
@@ -3749,13 +3734,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%AA%E9%BA%97%E4%BA%9E%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>瑪麗亞群島</t>
+    <t>玛丽亚群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%9C%E9%81%94%E7%9B%A7%E6%99%AE%E5%B3%B6</t>
   </si>
   <si>
-    <t>瓜達盧普島</t>
+    <t>瓜达卢普岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E8%B4%9D%E5%B0%BC%E6%89%98%E7%BE%A4%E5%B2%9B</t>
@@ -3767,7 +3752,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E8%92%82%E7%B6%AD%E9%81%94%E5%B3%B6</t>
   </si>
   <si>
-    <t>納蒂維達島</t>
+    <t>纳蒂维达岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E7%BB%B4%E5%88%A9%E4%BA%9A%E5%B8%8C%E8%B5%AB%E5%A4%9A%E7%BE%A4%E5%B2%9B</t>
@@ -3791,19 +3776,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%96%A9%E5%8D%A1%E7%89%B9%E5%B3%B6</t>
   </si>
   <si>
-    <t>大薩卡特島</t>
+    <t>大萨卡特岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E7%88%BE%E8%92%82%E6%A0%BC%E9%9B%B7%E5%B3%B6</t>
   </si>
   <si>
-    <t>埃爾蒂格雷島</t>
+    <t>埃尔蒂格雷岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%94%E6%9F%A5%E5%9C%AD%E5%A1%94%E5%B3%B6</t>
   </si>
   <si>
-    <t>孔查圭塔島</t>
+    <t>孔查圭塔岛</t>
   </si>
   <si>
     <t>https://es.wikipedia.org/wiki/Meanguera</t>
@@ -3821,7 +3806,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E4%BC%8A%E7%93%A6%E5%B3%B6</t>
   </si>
   <si>
-    <t>科伊瓦島</t>
+    <t>科伊瓦岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8F%8D%E7%8F%A0%E7%BE%A4%E5%B2%9B</t>
@@ -3833,7 +3818,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E6%A0%BC%E7%B4%8D%E5%B3%B6</t>
   </si>
   <si>
-    <t>高格納島</t>
+    <t>高格纳岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%B0%94%E4%BD%A9%E6%B4%9B%E5%B2%9B</t>
@@ -3851,25 +3836,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E7%B4%8D%E5%B3%B6</t>
   </si>
   <si>
-    <t>普納島</t>
+    <t>普纳岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%87%E6%B4%9B%E5%9F%83%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>奇洛埃群島</t>
+    <t>奇洛埃群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E8%AB%BE%E6%96%AF%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>喬諾斯群島</t>
+    <t>乔诺斯群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%A0%BC%E9%81%94%E8%90%8A%E7%B4%8D%E5%B3%B6</t>
   </si>
   <si>
-    <t>馬格達萊納島</t>
+    <t>马格达莱纳岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%83%A1%E5%AE%89%C2%B7%E8%B4%B9%E5%B0%94%E5%8D%97%E5%BE%B7%E6%96%AF%E7%BE%A4%E5%B2%9B</t>
@@ -3881,31 +3866,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E6%96%AF%E6%BA%AB%E7%89%B9%E5%BE%B7%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>德斯溫特德群島</t>
+    <t>德斯温特德群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%82%E5%B8%83%E9%BE%8D%E5%B3%B6</t>
   </si>
   <si>
-    <t>蒂布龍島</t>
+    <t>蒂布龙岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E8%B5%AB%E7%88%BE%E5%BE%B7%E6%8B%89%E7%93%9C%E7%88%BE%E9%81%94%E5%B3%B6</t>
   </si>
   <si>
-    <t>安赫爾德拉瓜爾達島</t>
+    <t>安赫尔德拉瓜尔达岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%BE%B7%E7%BE%85%E6%96%AF%E5%B3%B6</t>
   </si>
   <si>
-    <t>塞德羅斯島</t>
+    <t>塞德罗斯岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%BD%E9%9D%88%E5%B3%B6</t>
   </si>
   <si>
-    <t>幽靈島</t>
+    <t>幽灵岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%9B%E4%B8%BD%E4%BA%9A%C2%B7%E7%89%B9%E9%87%8C%E8%90%A8%E7%A4%81</t>
@@ -3941,25 +3926,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8F%8A%E8%BF%AA%E5%B3%B6</t>
   </si>
   <si>
-    <t>珊迪島</t>
+    <t>珊迪岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%96%AF%E6%B8%A3%E7%94%B8%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>洛斯渣甸群島</t>
+    <t>洛斯渣甸群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%B3%A5%E5%B3%B6</t>
   </si>
   <si>
-    <t>中鳥島</t>
+    <t>中鸟岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -3977,7 +3962,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -3995,7 +3980,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -4007,7 +3992,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -8499,7 +8484,7 @@
         <v>142</v>
       </c>
       <c r="G143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H143" t="s">
         <v>4</v>
@@ -8644,7 +8629,7 @@
         <v>166</v>
       </c>
       <c r="G148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H148" t="s">
         <v>4</v>
@@ -9195,7 +9180,7 @@
         <v>318</v>
       </c>
       <c r="G167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H167" t="s">
         <v>4</v>
@@ -11396,7 +11381,7 @@
         <v>461</v>
       </c>
       <c r="F243" t="s">
-        <v>462</v>
+        <v>128</v>
       </c>
       <c r="G243" t="n">
         <v>6</v>
@@ -11422,10 +11407,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
+        <v>462</v>
+      </c>
+      <c r="F244" t="s">
         <v>463</v>
-      </c>
-      <c r="F244" t="s">
-        <v>464</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -11451,10 +11436,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
+        <v>464</v>
+      </c>
+      <c r="F245" t="s">
         <v>465</v>
-      </c>
-      <c r="F245" t="s">
-        <v>466</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -11480,10 +11465,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
+        <v>466</v>
+      </c>
+      <c r="F246" t="s">
         <v>467</v>
-      </c>
-      <c r="F246" t="s">
-        <v>468</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -11509,10 +11494,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
+        <v>468</v>
+      </c>
+      <c r="F247" t="s">
         <v>469</v>
-      </c>
-      <c r="F247" t="s">
-        <v>470</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -11538,10 +11523,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
+        <v>470</v>
+      </c>
+      <c r="F248" t="s">
         <v>471</v>
-      </c>
-      <c r="F248" t="s">
-        <v>472</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -11567,10 +11552,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
+        <v>472</v>
+      </c>
+      <c r="F249" t="s">
         <v>473</v>
-      </c>
-      <c r="F249" t="s">
-        <v>474</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -11596,10 +11581,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
+        <v>474</v>
+      </c>
+      <c r="F250" t="s">
         <v>475</v>
-      </c>
-      <c r="F250" t="s">
-        <v>476</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -11625,10 +11610,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
+        <v>476</v>
+      </c>
+      <c r="F251" t="s">
         <v>477</v>
-      </c>
-      <c r="F251" t="s">
-        <v>478</v>
       </c>
       <c r="G251" t="n">
         <v>3</v>
@@ -11654,10 +11639,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
+        <v>478</v>
+      </c>
+      <c r="F252" t="s">
         <v>479</v>
-      </c>
-      <c r="F252" t="s">
-        <v>480</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -11683,10 +11668,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
+        <v>480</v>
+      </c>
+      <c r="F253" t="s">
         <v>481</v>
-      </c>
-      <c r="F253" t="s">
-        <v>482</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -11712,10 +11697,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
+        <v>482</v>
+      </c>
+      <c r="F254" t="s">
         <v>483</v>
-      </c>
-      <c r="F254" t="s">
-        <v>484</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -11741,10 +11726,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
+        <v>484</v>
+      </c>
+      <c r="F255" t="s">
         <v>485</v>
-      </c>
-      <c r="F255" t="s">
-        <v>486</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -11770,10 +11755,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
+        <v>486</v>
+      </c>
+      <c r="F256" t="s">
         <v>487</v>
-      </c>
-      <c r="F256" t="s">
-        <v>488</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -11799,10 +11784,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
+        <v>488</v>
+      </c>
+      <c r="F257" t="s">
         <v>489</v>
-      </c>
-      <c r="F257" t="s">
-        <v>490</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -11828,10 +11813,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
+        <v>490</v>
+      </c>
+      <c r="F258" t="s">
         <v>491</v>
-      </c>
-      <c r="F258" t="s">
-        <v>492</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -11857,10 +11842,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
+        <v>492</v>
+      </c>
+      <c r="F259" t="s">
         <v>493</v>
-      </c>
-      <c r="F259" t="s">
-        <v>494</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -11886,10 +11871,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
+        <v>494</v>
+      </c>
+      <c r="F260" t="s">
         <v>495</v>
-      </c>
-      <c r="F260" t="s">
-        <v>496</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -11915,10 +11900,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
+        <v>496</v>
+      </c>
+      <c r="F261" t="s">
         <v>497</v>
-      </c>
-      <c r="F261" t="s">
-        <v>498</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -11944,10 +11929,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
+        <v>498</v>
+      </c>
+      <c r="F262" t="s">
         <v>499</v>
-      </c>
-      <c r="F262" t="s">
-        <v>500</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -11973,10 +11958,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
+        <v>500</v>
+      </c>
+      <c r="F263" t="s">
         <v>501</v>
-      </c>
-      <c r="F263" t="s">
-        <v>502</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -12002,10 +11987,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
+        <v>502</v>
+      </c>
+      <c r="F264" t="s">
         <v>503</v>
-      </c>
-      <c r="F264" t="s">
-        <v>504</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -12031,10 +12016,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
+        <v>504</v>
+      </c>
+      <c r="F265" t="s">
         <v>505</v>
-      </c>
-      <c r="F265" t="s">
-        <v>506</v>
       </c>
       <c r="G265" t="n">
         <v>3</v>
@@ -12060,10 +12045,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
+        <v>506</v>
+      </c>
+      <c r="F266" t="s">
         <v>507</v>
-      </c>
-      <c r="F266" t="s">
-        <v>508</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -12089,10 +12074,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
+        <v>508</v>
+      </c>
+      <c r="F267" t="s">
         <v>509</v>
-      </c>
-      <c r="F267" t="s">
-        <v>510</v>
       </c>
       <c r="G267" t="n">
         <v>2</v>
@@ -12118,10 +12103,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
+        <v>510</v>
+      </c>
+      <c r="F268" t="s">
         <v>511</v>
-      </c>
-      <c r="F268" t="s">
-        <v>512</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -12147,10 +12132,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
+        <v>512</v>
+      </c>
+      <c r="F269" t="s">
         <v>513</v>
-      </c>
-      <c r="F269" t="s">
-        <v>514</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -12176,10 +12161,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
+        <v>514</v>
+      </c>
+      <c r="F270" t="s">
         <v>515</v>
-      </c>
-      <c r="F270" t="s">
-        <v>516</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -12205,10 +12190,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
+        <v>516</v>
+      </c>
+      <c r="F271" t="s">
         <v>517</v>
-      </c>
-      <c r="F271" t="s">
-        <v>518</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -12234,10 +12219,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
+        <v>518</v>
+      </c>
+      <c r="F272" t="s">
         <v>519</v>
-      </c>
-      <c r="F272" t="s">
-        <v>520</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -12263,10 +12248,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
+        <v>520</v>
+      </c>
+      <c r="F273" t="s">
         <v>521</v>
-      </c>
-      <c r="F273" t="s">
-        <v>522</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -12292,10 +12277,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
+        <v>522</v>
+      </c>
+      <c r="F274" t="s">
         <v>523</v>
-      </c>
-      <c r="F274" t="s">
-        <v>524</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -12321,10 +12306,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
+        <v>524</v>
+      </c>
+      <c r="F275" t="s">
         <v>525</v>
-      </c>
-      <c r="F275" t="s">
-        <v>526</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -12350,10 +12335,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
+        <v>526</v>
+      </c>
+      <c r="F276" t="s">
         <v>527</v>
-      </c>
-      <c r="F276" t="s">
-        <v>528</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -12379,10 +12364,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
+        <v>528</v>
+      </c>
+      <c r="F277" t="s">
         <v>529</v>
-      </c>
-      <c r="F277" t="s">
-        <v>530</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -12408,10 +12393,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
+        <v>530</v>
+      </c>
+      <c r="F278" t="s">
         <v>531</v>
-      </c>
-      <c r="F278" t="s">
-        <v>532</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -12437,10 +12422,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
+        <v>532</v>
+      </c>
+      <c r="F279" t="s">
         <v>533</v>
-      </c>
-      <c r="F279" t="s">
-        <v>534</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -12466,10 +12451,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
+        <v>534</v>
+      </c>
+      <c r="F280" t="s">
         <v>535</v>
-      </c>
-      <c r="F280" t="s">
-        <v>536</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -12495,10 +12480,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
+        <v>536</v>
+      </c>
+      <c r="F281" t="s">
         <v>537</v>
-      </c>
-      <c r="F281" t="s">
-        <v>538</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -12524,10 +12509,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
+        <v>538</v>
+      </c>
+      <c r="F282" t="s">
         <v>539</v>
-      </c>
-      <c r="F282" t="s">
-        <v>540</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -12553,10 +12538,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
+        <v>540</v>
+      </c>
+      <c r="F283" t="s">
         <v>541</v>
-      </c>
-      <c r="F283" t="s">
-        <v>542</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -12582,10 +12567,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
+        <v>542</v>
+      </c>
+      <c r="F284" t="s">
         <v>543</v>
-      </c>
-      <c r="F284" t="s">
-        <v>544</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -12611,10 +12596,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
+        <v>544</v>
+      </c>
+      <c r="F285" t="s">
         <v>545</v>
-      </c>
-      <c r="F285" t="s">
-        <v>546</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -12640,10 +12625,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
+        <v>546</v>
+      </c>
+      <c r="F286" t="s">
         <v>547</v>
-      </c>
-      <c r="F286" t="s">
-        <v>548</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -12669,10 +12654,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
+        <v>548</v>
+      </c>
+      <c r="F287" t="s">
         <v>549</v>
-      </c>
-      <c r="F287" t="s">
-        <v>550</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -12698,10 +12683,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
+        <v>550</v>
+      </c>
+      <c r="F288" t="s">
         <v>551</v>
-      </c>
-      <c r="F288" t="s">
-        <v>552</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -12727,10 +12712,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
+        <v>552</v>
+      </c>
+      <c r="F289" t="s">
         <v>553</v>
-      </c>
-      <c r="F289" t="s">
-        <v>554</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -12756,10 +12741,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
+        <v>554</v>
+      </c>
+      <c r="F290" t="s">
         <v>555</v>
-      </c>
-      <c r="F290" t="s">
-        <v>556</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -12785,10 +12770,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
+        <v>556</v>
+      </c>
+      <c r="F291" t="s">
         <v>557</v>
-      </c>
-      <c r="F291" t="s">
-        <v>558</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -12814,10 +12799,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
+        <v>558</v>
+      </c>
+      <c r="F292" t="s">
         <v>559</v>
-      </c>
-      <c r="F292" t="s">
-        <v>560</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -12843,10 +12828,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
+        <v>560</v>
+      </c>
+      <c r="F293" t="s">
         <v>561</v>
-      </c>
-      <c r="F293" t="s">
-        <v>562</v>
       </c>
       <c r="G293" t="n">
         <v>4</v>
@@ -12872,10 +12857,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
+        <v>562</v>
+      </c>
+      <c r="F294" t="s">
         <v>563</v>
-      </c>
-      <c r="F294" t="s">
-        <v>564</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -12901,10 +12886,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
+        <v>564</v>
+      </c>
+      <c r="F295" t="s">
         <v>565</v>
-      </c>
-      <c r="F295" t="s">
-        <v>566</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -12930,10 +12915,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
+        <v>566</v>
+      </c>
+      <c r="F296" t="s">
         <v>567</v>
-      </c>
-      <c r="F296" t="s">
-        <v>568</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -12959,10 +12944,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
+        <v>568</v>
+      </c>
+      <c r="F297" t="s">
         <v>569</v>
-      </c>
-      <c r="F297" t="s">
-        <v>570</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -12988,10 +12973,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
+        <v>570</v>
+      </c>
+      <c r="F298" t="s">
         <v>571</v>
-      </c>
-      <c r="F298" t="s">
-        <v>572</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -13017,10 +13002,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
+        <v>572</v>
+      </c>
+      <c r="F299" t="s">
         <v>573</v>
-      </c>
-      <c r="F299" t="s">
-        <v>574</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -13046,10 +13031,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
+        <v>574</v>
+      </c>
+      <c r="F300" t="s">
         <v>575</v>
-      </c>
-      <c r="F300" t="s">
-        <v>576</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -13075,10 +13060,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
+        <v>576</v>
+      </c>
+      <c r="F301" t="s">
         <v>577</v>
-      </c>
-      <c r="F301" t="s">
-        <v>578</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -13104,10 +13089,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
+        <v>578</v>
+      </c>
+      <c r="F302" t="s">
         <v>579</v>
-      </c>
-      <c r="F302" t="s">
-        <v>580</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -13133,10 +13118,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
+        <v>580</v>
+      </c>
+      <c r="F303" t="s">
         <v>581</v>
-      </c>
-      <c r="F303" t="s">
-        <v>582</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -13162,10 +13147,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
+        <v>582</v>
+      </c>
+      <c r="F304" t="s">
         <v>583</v>
-      </c>
-      <c r="F304" t="s">
-        <v>584</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -13191,10 +13176,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
+        <v>584</v>
+      </c>
+      <c r="F305" t="s">
         <v>585</v>
-      </c>
-      <c r="F305" t="s">
-        <v>586</v>
       </c>
       <c r="G305" t="n">
         <v>2</v>
@@ -13220,10 +13205,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
+        <v>586</v>
+      </c>
+      <c r="F306" t="s">
         <v>587</v>
-      </c>
-      <c r="F306" t="s">
-        <v>588</v>
       </c>
       <c r="G306" t="n">
         <v>2</v>
@@ -13249,10 +13234,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
+        <v>588</v>
+      </c>
+      <c r="F307" t="s">
         <v>589</v>
-      </c>
-      <c r="F307" t="s">
-        <v>590</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -13278,10 +13263,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
+        <v>590</v>
+      </c>
+      <c r="F308" t="s">
         <v>591</v>
-      </c>
-      <c r="F308" t="s">
-        <v>592</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -13307,10 +13292,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
+        <v>592</v>
+      </c>
+      <c r="F309" t="s">
         <v>593</v>
-      </c>
-      <c r="F309" t="s">
-        <v>594</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -13336,10 +13321,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
+        <v>594</v>
+      </c>
+      <c r="F310" t="s">
         <v>595</v>
-      </c>
-      <c r="F310" t="s">
-        <v>596</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -13365,10 +13350,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
+        <v>596</v>
+      </c>
+      <c r="F311" t="s">
         <v>597</v>
-      </c>
-      <c r="F311" t="s">
-        <v>598</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -13394,10 +13379,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
+        <v>598</v>
+      </c>
+      <c r="F312" t="s">
         <v>599</v>
-      </c>
-      <c r="F312" t="s">
-        <v>600</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -13423,10 +13408,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
+        <v>600</v>
+      </c>
+      <c r="F313" t="s">
         <v>601</v>
-      </c>
-      <c r="F313" t="s">
-        <v>602</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -13452,10 +13437,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
+        <v>602</v>
+      </c>
+      <c r="F314" t="s">
         <v>603</v>
-      </c>
-      <c r="F314" t="s">
-        <v>604</v>
       </c>
       <c r="G314" t="n">
         <v>2</v>
@@ -13481,10 +13466,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
+        <v>604</v>
+      </c>
+      <c r="F315" t="s">
         <v>605</v>
-      </c>
-      <c r="F315" t="s">
-        <v>606</v>
       </c>
       <c r="G315" t="n">
         <v>2</v>
@@ -13510,10 +13495,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
+        <v>606</v>
+      </c>
+      <c r="F316" t="s">
         <v>607</v>
-      </c>
-      <c r="F316" t="s">
-        <v>608</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -13539,10 +13524,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
+        <v>608</v>
+      </c>
+      <c r="F317" t="s">
         <v>609</v>
-      </c>
-      <c r="F317" t="s">
-        <v>610</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -13568,10 +13553,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
+        <v>610</v>
+      </c>
+      <c r="F318" t="s">
         <v>611</v>
-      </c>
-      <c r="F318" t="s">
-        <v>612</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -13597,10 +13582,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
+        <v>612</v>
+      </c>
+      <c r="F319" t="s">
         <v>613</v>
-      </c>
-      <c r="F319" t="s">
-        <v>614</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -13626,10 +13611,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
+        <v>614</v>
+      </c>
+      <c r="F320" t="s">
         <v>615</v>
-      </c>
-      <c r="F320" t="s">
-        <v>616</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -13655,10 +13640,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
+        <v>616</v>
+      </c>
+      <c r="F321" t="s">
         <v>617</v>
-      </c>
-      <c r="F321" t="s">
-        <v>618</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -13684,10 +13669,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
+        <v>618</v>
+      </c>
+      <c r="F322" t="s">
         <v>619</v>
-      </c>
-      <c r="F322" t="s">
-        <v>620</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -13713,10 +13698,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
+        <v>620</v>
+      </c>
+      <c r="F323" t="s">
         <v>621</v>
-      </c>
-      <c r="F323" t="s">
-        <v>622</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -13742,10 +13727,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
+        <v>622</v>
+      </c>
+      <c r="F324" t="s">
         <v>623</v>
-      </c>
-      <c r="F324" t="s">
-        <v>624</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -13771,10 +13756,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
+        <v>624</v>
+      </c>
+      <c r="F325" t="s">
         <v>625</v>
-      </c>
-      <c r="F325" t="s">
-        <v>626</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -13800,10 +13785,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
+        <v>626</v>
+      </c>
+      <c r="F326" t="s">
         <v>627</v>
-      </c>
-      <c r="F326" t="s">
-        <v>628</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -13829,10 +13814,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
+        <v>628</v>
+      </c>
+      <c r="F327" t="s">
         <v>629</v>
-      </c>
-      <c r="F327" t="s">
-        <v>630</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -13858,10 +13843,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
+        <v>630</v>
+      </c>
+      <c r="F328" t="s">
         <v>631</v>
-      </c>
-      <c r="F328" t="s">
-        <v>632</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -13887,10 +13872,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
+        <v>632</v>
+      </c>
+      <c r="F329" t="s">
         <v>633</v>
-      </c>
-      <c r="F329" t="s">
-        <v>634</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -13916,10 +13901,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
+        <v>634</v>
+      </c>
+      <c r="F330" t="s">
         <v>635</v>
-      </c>
-      <c r="F330" t="s">
-        <v>636</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -13945,10 +13930,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
+        <v>636</v>
+      </c>
+      <c r="F331" t="s">
         <v>637</v>
-      </c>
-      <c r="F331" t="s">
-        <v>638</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -13974,10 +13959,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
+        <v>638</v>
+      </c>
+      <c r="F332" t="s">
         <v>639</v>
-      </c>
-      <c r="F332" t="s">
-        <v>640</v>
       </c>
       <c r="G332" t="n">
         <v>2</v>
@@ -14003,10 +13988,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
+        <v>640</v>
+      </c>
+      <c r="F333" t="s">
         <v>641</v>
-      </c>
-      <c r="F333" t="s">
-        <v>642</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -14032,10 +14017,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
+        <v>642</v>
+      </c>
+      <c r="F334" t="s">
         <v>643</v>
-      </c>
-      <c r="F334" t="s">
-        <v>644</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -14061,10 +14046,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
+        <v>644</v>
+      </c>
+      <c r="F335" t="s">
         <v>645</v>
-      </c>
-      <c r="F335" t="s">
-        <v>646</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -14090,10 +14075,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
+        <v>646</v>
+      </c>
+      <c r="F336" t="s">
         <v>647</v>
-      </c>
-      <c r="F336" t="s">
-        <v>648</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -14119,10 +14104,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
+        <v>648</v>
+      </c>
+      <c r="F337" t="s">
         <v>649</v>
-      </c>
-      <c r="F337" t="s">
-        <v>650</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -14148,10 +14133,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
+        <v>650</v>
+      </c>
+      <c r="F338" t="s">
         <v>651</v>
-      </c>
-      <c r="F338" t="s">
-        <v>652</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -14177,10 +14162,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
+        <v>652</v>
+      </c>
+      <c r="F339" t="s">
         <v>653</v>
-      </c>
-      <c r="F339" t="s">
-        <v>654</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -14206,10 +14191,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
+        <v>654</v>
+      </c>
+      <c r="F340" t="s">
         <v>655</v>
-      </c>
-      <c r="F340" t="s">
-        <v>656</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -14235,10 +14220,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
+        <v>656</v>
+      </c>
+      <c r="F341" t="s">
         <v>657</v>
-      </c>
-      <c r="F341" t="s">
-        <v>658</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -14264,10 +14249,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
+        <v>658</v>
+      </c>
+      <c r="F342" t="s">
         <v>659</v>
-      </c>
-      <c r="F342" t="s">
-        <v>660</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -14293,10 +14278,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
+        <v>660</v>
+      </c>
+      <c r="F343" t="s">
         <v>661</v>
-      </c>
-      <c r="F343" t="s">
-        <v>662</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -14322,10 +14307,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
+        <v>662</v>
+      </c>
+      <c r="F344" t="s">
         <v>663</v>
-      </c>
-      <c r="F344" t="s">
-        <v>664</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -14351,10 +14336,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
+        <v>664</v>
+      </c>
+      <c r="F345" t="s">
         <v>665</v>
-      </c>
-      <c r="F345" t="s">
-        <v>666</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -14380,10 +14365,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
+        <v>666</v>
+      </c>
+      <c r="F346" t="s">
         <v>667</v>
-      </c>
-      <c r="F346" t="s">
-        <v>668</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -14409,10 +14394,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
+        <v>668</v>
+      </c>
+      <c r="F347" t="s">
         <v>669</v>
-      </c>
-      <c r="F347" t="s">
-        <v>670</v>
       </c>
       <c r="G347" t="n">
         <v>2</v>
@@ -14438,10 +14423,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
+        <v>670</v>
+      </c>
+      <c r="F348" t="s">
         <v>671</v>
-      </c>
-      <c r="F348" t="s">
-        <v>672</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -14467,10 +14452,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
+        <v>672</v>
+      </c>
+      <c r="F349" t="s">
         <v>673</v>
-      </c>
-      <c r="F349" t="s">
-        <v>674</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -14496,10 +14481,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
+        <v>674</v>
+      </c>
+      <c r="F350" t="s">
         <v>675</v>
-      </c>
-      <c r="F350" t="s">
-        <v>676</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -14525,10 +14510,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
+        <v>676</v>
+      </c>
+      <c r="F351" t="s">
         <v>677</v>
-      </c>
-      <c r="F351" t="s">
-        <v>678</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -14554,10 +14539,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
+        <v>678</v>
+      </c>
+      <c r="F352" t="s">
         <v>679</v>
-      </c>
-      <c r="F352" t="s">
-        <v>680</v>
       </c>
       <c r="G352" t="n">
         <v>2</v>
@@ -14583,10 +14568,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
+        <v>680</v>
+      </c>
+      <c r="F353" t="s">
         <v>681</v>
-      </c>
-      <c r="F353" t="s">
-        <v>682</v>
       </c>
       <c r="G353" t="n">
         <v>2</v>
@@ -14612,10 +14597,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
+        <v>682</v>
+      </c>
+      <c r="F354" t="s">
         <v>683</v>
-      </c>
-      <c r="F354" t="s">
-        <v>684</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -14641,10 +14626,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
+        <v>684</v>
+      </c>
+      <c r="F355" t="s">
         <v>685</v>
-      </c>
-      <c r="F355" t="s">
-        <v>686</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -14670,10 +14655,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
+        <v>686</v>
+      </c>
+      <c r="F356" t="s">
         <v>687</v>
-      </c>
-      <c r="F356" t="s">
-        <v>688</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -14699,10 +14684,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
+        <v>688</v>
+      </c>
+      <c r="F357" t="s">
         <v>689</v>
-      </c>
-      <c r="F357" t="s">
-        <v>690</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -14728,10 +14713,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
+        <v>690</v>
+      </c>
+      <c r="F358" t="s">
         <v>691</v>
-      </c>
-      <c r="F358" t="s">
-        <v>692</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -14757,10 +14742,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
+        <v>692</v>
+      </c>
+      <c r="F359" t="s">
         <v>693</v>
-      </c>
-      <c r="F359" t="s">
-        <v>694</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -14786,10 +14771,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
+        <v>694</v>
+      </c>
+      <c r="F360" t="s">
         <v>695</v>
-      </c>
-      <c r="F360" t="s">
-        <v>696</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -14815,10 +14800,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
+        <v>696</v>
+      </c>
+      <c r="F361" t="s">
         <v>697</v>
-      </c>
-      <c r="F361" t="s">
-        <v>698</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -14844,10 +14829,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
+        <v>698</v>
+      </c>
+      <c r="F362" t="s">
         <v>699</v>
-      </c>
-      <c r="F362" t="s">
-        <v>700</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -14873,10 +14858,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
+        <v>700</v>
+      </c>
+      <c r="F363" t="s">
         <v>701</v>
-      </c>
-      <c r="F363" t="s">
-        <v>702</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -14902,10 +14887,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
+        <v>702</v>
+      </c>
+      <c r="F364" t="s">
         <v>703</v>
-      </c>
-      <c r="F364" t="s">
-        <v>704</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -14931,10 +14916,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
+        <v>704</v>
+      </c>
+      <c r="F365" t="s">
         <v>705</v>
-      </c>
-      <c r="F365" t="s">
-        <v>706</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -14960,10 +14945,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
+        <v>706</v>
+      </c>
+      <c r="F366" t="s">
         <v>707</v>
-      </c>
-      <c r="F366" t="s">
-        <v>708</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -14989,10 +14974,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
+        <v>708</v>
+      </c>
+      <c r="F367" t="s">
         <v>709</v>
-      </c>
-      <c r="F367" t="s">
-        <v>710</v>
       </c>
       <c r="G367" t="n">
         <v>4</v>
@@ -15018,10 +15003,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
+        <v>710</v>
+      </c>
+      <c r="F368" t="s">
         <v>711</v>
-      </c>
-      <c r="F368" t="s">
-        <v>712</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -15047,10 +15032,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
+        <v>712</v>
+      </c>
+      <c r="F369" t="s">
         <v>713</v>
-      </c>
-      <c r="F369" t="s">
-        <v>714</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -15076,10 +15061,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
+        <v>714</v>
+      </c>
+      <c r="F370" t="s">
         <v>715</v>
-      </c>
-      <c r="F370" t="s">
-        <v>716</v>
       </c>
       <c r="G370" t="n">
         <v>2</v>
@@ -15105,10 +15090,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
+        <v>716</v>
+      </c>
+      <c r="F371" t="s">
         <v>717</v>
-      </c>
-      <c r="F371" t="s">
-        <v>718</v>
       </c>
       <c r="G371" t="n">
         <v>2</v>
@@ -15134,10 +15119,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
+        <v>718</v>
+      </c>
+      <c r="F372" t="s">
         <v>719</v>
-      </c>
-      <c r="F372" t="s">
-        <v>720</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -15163,10 +15148,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
+        <v>720</v>
+      </c>
+      <c r="F373" t="s">
         <v>721</v>
-      </c>
-      <c r="F373" t="s">
-        <v>722</v>
       </c>
       <c r="G373" t="n">
         <v>2</v>
@@ -15192,10 +15177,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
+        <v>722</v>
+      </c>
+      <c r="F374" t="s">
         <v>723</v>
-      </c>
-      <c r="F374" t="s">
-        <v>724</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -15221,10 +15206,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
+        <v>724</v>
+      </c>
+      <c r="F375" t="s">
         <v>725</v>
-      </c>
-      <c r="F375" t="s">
-        <v>726</v>
       </c>
       <c r="G375" t="n">
         <v>2</v>
@@ -15250,10 +15235,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
+        <v>726</v>
+      </c>
+      <c r="F376" t="s">
         <v>727</v>
-      </c>
-      <c r="F376" t="s">
-        <v>728</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -15279,10 +15264,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
+        <v>728</v>
+      </c>
+      <c r="F377" t="s">
         <v>729</v>
-      </c>
-      <c r="F377" t="s">
-        <v>730</v>
       </c>
       <c r="G377" t="n">
         <v>2</v>
@@ -15308,10 +15293,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
+        <v>730</v>
+      </c>
+      <c r="F378" t="s">
         <v>731</v>
-      </c>
-      <c r="F378" t="s">
-        <v>732</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -15337,10 +15322,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
+        <v>732</v>
+      </c>
+      <c r="F379" t="s">
         <v>733</v>
-      </c>
-      <c r="F379" t="s">
-        <v>734</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -15366,10 +15351,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
+        <v>734</v>
+      </c>
+      <c r="F380" t="s">
         <v>735</v>
-      </c>
-      <c r="F380" t="s">
-        <v>736</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -15395,10 +15380,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
+        <v>736</v>
+      </c>
+      <c r="F381" t="s">
         <v>737</v>
-      </c>
-      <c r="F381" t="s">
-        <v>738</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -15424,10 +15409,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
+        <v>738</v>
+      </c>
+      <c r="F382" t="s">
         <v>739</v>
-      </c>
-      <c r="F382" t="s">
-        <v>740</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -15453,10 +15438,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
+        <v>740</v>
+      </c>
+      <c r="F383" t="s">
         <v>741</v>
-      </c>
-      <c r="F383" t="s">
-        <v>742</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -15482,10 +15467,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
+        <v>742</v>
+      </c>
+      <c r="F384" t="s">
         <v>743</v>
-      </c>
-      <c r="F384" t="s">
-        <v>744</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -15511,10 +15496,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
+        <v>744</v>
+      </c>
+      <c r="F385" t="s">
         <v>745</v>
-      </c>
-      <c r="F385" t="s">
-        <v>746</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -15540,10 +15525,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
+        <v>746</v>
+      </c>
+      <c r="F386" t="s">
         <v>747</v>
-      </c>
-      <c r="F386" t="s">
-        <v>748</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -15569,10 +15554,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
+        <v>748</v>
+      </c>
+      <c r="F387" t="s">
         <v>749</v>
-      </c>
-      <c r="F387" t="s">
-        <v>750</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -15598,10 +15583,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
+        <v>750</v>
+      </c>
+      <c r="F388" t="s">
         <v>751</v>
-      </c>
-      <c r="F388" t="s">
-        <v>752</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -15627,10 +15612,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
+        <v>752</v>
+      </c>
+      <c r="F389" t="s">
         <v>753</v>
-      </c>
-      <c r="F389" t="s">
-        <v>754</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -15656,10 +15641,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
+        <v>754</v>
+      </c>
+      <c r="F390" t="s">
         <v>755</v>
-      </c>
-      <c r="F390" t="s">
-        <v>756</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -15685,10 +15670,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
+        <v>756</v>
+      </c>
+      <c r="F391" t="s">
         <v>757</v>
-      </c>
-      <c r="F391" t="s">
-        <v>758</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -15714,10 +15699,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
+        <v>758</v>
+      </c>
+      <c r="F392" t="s">
         <v>759</v>
-      </c>
-      <c r="F392" t="s">
-        <v>760</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -15743,10 +15728,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
+        <v>760</v>
+      </c>
+      <c r="F393" t="s">
         <v>761</v>
-      </c>
-      <c r="F393" t="s">
-        <v>762</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -15772,10 +15757,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
+        <v>762</v>
+      </c>
+      <c r="F394" t="s">
         <v>763</v>
-      </c>
-      <c r="F394" t="s">
-        <v>764</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -15801,10 +15786,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
+        <v>764</v>
+      </c>
+      <c r="F395" t="s">
         <v>765</v>
-      </c>
-      <c r="F395" t="s">
-        <v>766</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -15830,10 +15815,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
+        <v>766</v>
+      </c>
+      <c r="F396" t="s">
         <v>767</v>
-      </c>
-      <c r="F396" t="s">
-        <v>768</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
@@ -15859,10 +15844,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
+        <v>768</v>
+      </c>
+      <c r="F397" t="s">
         <v>769</v>
-      </c>
-      <c r="F397" t="s">
-        <v>770</v>
       </c>
       <c r="G397" t="n">
         <v>2</v>
@@ -15888,10 +15873,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
+        <v>770</v>
+      </c>
+      <c r="F398" t="s">
         <v>771</v>
-      </c>
-      <c r="F398" t="s">
-        <v>772</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -15917,10 +15902,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
+        <v>772</v>
+      </c>
+      <c r="F399" t="s">
         <v>773</v>
-      </c>
-      <c r="F399" t="s">
-        <v>774</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
@@ -15946,10 +15931,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
+        <v>774</v>
+      </c>
+      <c r="F400" t="s">
         <v>775</v>
-      </c>
-      <c r="F400" t="s">
-        <v>776</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -15975,10 +15960,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
+        <v>776</v>
+      </c>
+      <c r="F401" t="s">
         <v>777</v>
-      </c>
-      <c r="F401" t="s">
-        <v>778</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -16004,10 +15989,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
+        <v>778</v>
+      </c>
+      <c r="F402" t="s">
         <v>779</v>
-      </c>
-      <c r="F402" t="s">
-        <v>780</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -16033,10 +16018,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
+        <v>780</v>
+      </c>
+      <c r="F403" t="s">
         <v>781</v>
-      </c>
-      <c r="F403" t="s">
-        <v>782</v>
       </c>
       <c r="G403" t="n">
         <v>444</v>
@@ -16062,10 +16047,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
+        <v>782</v>
+      </c>
+      <c r="F404" t="s">
         <v>783</v>
-      </c>
-      <c r="F404" t="s">
-        <v>784</v>
       </c>
       <c r="G404" t="n">
         <v>13</v>
@@ -16091,10 +16076,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
+        <v>784</v>
+      </c>
+      <c r="F405" t="s">
         <v>785</v>
-      </c>
-      <c r="F405" t="s">
-        <v>786</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -16120,10 +16105,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
+        <v>786</v>
+      </c>
+      <c r="F406" t="s">
         <v>787</v>
-      </c>
-      <c r="F406" t="s">
-        <v>788</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -16149,10 +16134,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
+        <v>788</v>
+      </c>
+      <c r="F407" t="s">
         <v>789</v>
-      </c>
-      <c r="F407" t="s">
-        <v>790</v>
       </c>
       <c r="G407" t="n">
         <v>1</v>
@@ -16178,10 +16163,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
+        <v>790</v>
+      </c>
+      <c r="F408" t="s">
         <v>791</v>
-      </c>
-      <c r="F408" t="s">
-        <v>792</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
@@ -16207,10 +16192,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
+        <v>792</v>
+      </c>
+      <c r="F409" t="s">
         <v>793</v>
-      </c>
-      <c r="F409" t="s">
-        <v>794</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -16236,10 +16221,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
+        <v>794</v>
+      </c>
+      <c r="F410" t="s">
         <v>795</v>
-      </c>
-      <c r="F410" t="s">
-        <v>796</v>
       </c>
       <c r="G410" t="n">
         <v>1</v>
@@ -16265,10 +16250,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
+        <v>796</v>
+      </c>
+      <c r="F411" t="s">
         <v>797</v>
-      </c>
-      <c r="F411" t="s">
-        <v>798</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -16294,10 +16279,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
+        <v>798</v>
+      </c>
+      <c r="F412" t="s">
         <v>799</v>
-      </c>
-      <c r="F412" t="s">
-        <v>800</v>
       </c>
       <c r="G412" t="n">
         <v>1</v>
@@ -16323,10 +16308,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
+        <v>800</v>
+      </c>
+      <c r="F413" t="s">
         <v>801</v>
-      </c>
-      <c r="F413" t="s">
-        <v>802</v>
       </c>
       <c r="G413" t="n">
         <v>1</v>
@@ -16352,10 +16337,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
+        <v>802</v>
+      </c>
+      <c r="F414" t="s">
         <v>803</v>
-      </c>
-      <c r="F414" t="s">
-        <v>804</v>
       </c>
       <c r="G414" t="n">
         <v>1</v>
@@ -16381,10 +16366,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
+        <v>804</v>
+      </c>
+      <c r="F415" t="s">
         <v>805</v>
-      </c>
-      <c r="F415" t="s">
-        <v>806</v>
       </c>
       <c r="G415" t="n">
         <v>1</v>
@@ -16410,10 +16395,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
+        <v>806</v>
+      </c>
+      <c r="F416" t="s">
         <v>807</v>
-      </c>
-      <c r="F416" t="s">
-        <v>808</v>
       </c>
       <c r="G416" t="n">
         <v>1</v>
@@ -16439,10 +16424,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
+        <v>808</v>
+      </c>
+      <c r="F417" t="s">
         <v>809</v>
-      </c>
-      <c r="F417" t="s">
-        <v>810</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
@@ -16468,10 +16453,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
+        <v>810</v>
+      </c>
+      <c r="F418" t="s">
         <v>811</v>
-      </c>
-      <c r="F418" t="s">
-        <v>812</v>
       </c>
       <c r="G418" t="n">
         <v>1</v>
@@ -16497,10 +16482,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
+        <v>812</v>
+      </c>
+      <c r="F419" t="s">
         <v>813</v>
-      </c>
-      <c r="F419" t="s">
-        <v>814</v>
       </c>
       <c r="G419" t="n">
         <v>1</v>
@@ -16526,10 +16511,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
+        <v>814</v>
+      </c>
+      <c r="F420" t="s">
         <v>815</v>
-      </c>
-      <c r="F420" t="s">
-        <v>816</v>
       </c>
       <c r="G420" t="n">
         <v>1</v>
@@ -16555,10 +16540,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
+        <v>816</v>
+      </c>
+      <c r="F421" t="s">
         <v>817</v>
-      </c>
-      <c r="F421" t="s">
-        <v>818</v>
       </c>
       <c r="G421" t="n">
         <v>1</v>
@@ -16584,10 +16569,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
+        <v>818</v>
+      </c>
+      <c r="F422" t="s">
         <v>819</v>
-      </c>
-      <c r="F422" t="s">
-        <v>820</v>
       </c>
       <c r="G422" t="n">
         <v>1</v>
@@ -16613,10 +16598,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
+        <v>820</v>
+      </c>
+      <c r="F423" t="s">
         <v>821</v>
-      </c>
-      <c r="F423" t="s">
-        <v>822</v>
       </c>
       <c r="G423" t="n">
         <v>1</v>
@@ -16642,10 +16627,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
+        <v>822</v>
+      </c>
+      <c r="F424" t="s">
         <v>823</v>
-      </c>
-      <c r="F424" t="s">
-        <v>824</v>
       </c>
       <c r="G424" t="n">
         <v>1</v>
@@ -16671,10 +16656,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
+        <v>824</v>
+      </c>
+      <c r="F425" t="s">
         <v>825</v>
-      </c>
-      <c r="F425" t="s">
-        <v>826</v>
       </c>
       <c r="G425" t="n">
         <v>1</v>
@@ -16700,10 +16685,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
+        <v>826</v>
+      </c>
+      <c r="F426" t="s">
         <v>827</v>
-      </c>
-      <c r="F426" t="s">
-        <v>828</v>
       </c>
       <c r="G426" t="n">
         <v>1</v>
@@ -16729,10 +16714,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
+        <v>828</v>
+      </c>
+      <c r="F427" t="s">
         <v>829</v>
-      </c>
-      <c r="F427" t="s">
-        <v>830</v>
       </c>
       <c r="G427" t="n">
         <v>1</v>
@@ -16758,10 +16743,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
+        <v>830</v>
+      </c>
+      <c r="F428" t="s">
         <v>831</v>
-      </c>
-      <c r="F428" t="s">
-        <v>832</v>
       </c>
       <c r="G428" t="n">
         <v>1</v>
@@ -16787,10 +16772,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
+        <v>832</v>
+      </c>
+      <c r="F429" t="s">
         <v>833</v>
-      </c>
-      <c r="F429" t="s">
-        <v>834</v>
       </c>
       <c r="G429" t="n">
         <v>1</v>
@@ -16816,10 +16801,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
+        <v>834</v>
+      </c>
+      <c r="F430" t="s">
         <v>835</v>
-      </c>
-      <c r="F430" t="s">
-        <v>836</v>
       </c>
       <c r="G430" t="n">
         <v>1</v>
@@ -16845,10 +16830,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
+        <v>836</v>
+      </c>
+      <c r="F431" t="s">
         <v>837</v>
-      </c>
-      <c r="F431" t="s">
-        <v>838</v>
       </c>
       <c r="G431" t="n">
         <v>1</v>
@@ -16874,10 +16859,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
+        <v>838</v>
+      </c>
+      <c r="F432" t="s">
         <v>839</v>
-      </c>
-      <c r="F432" t="s">
-        <v>840</v>
       </c>
       <c r="G432" t="n">
         <v>1</v>
@@ -16903,10 +16888,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
+        <v>840</v>
+      </c>
+      <c r="F433" t="s">
         <v>841</v>
-      </c>
-      <c r="F433" t="s">
-        <v>842</v>
       </c>
       <c r="G433" t="n">
         <v>1</v>
@@ -16932,10 +16917,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
+        <v>842</v>
+      </c>
+      <c r="F434" t="s">
         <v>843</v>
-      </c>
-      <c r="F434" t="s">
-        <v>844</v>
       </c>
       <c r="G434" t="n">
         <v>1</v>
@@ -16961,10 +16946,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
+        <v>844</v>
+      </c>
+      <c r="F435" t="s">
         <v>845</v>
-      </c>
-      <c r="F435" t="s">
-        <v>846</v>
       </c>
       <c r="G435" t="n">
         <v>1</v>
@@ -16990,10 +16975,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
+        <v>846</v>
+      </c>
+      <c r="F436" t="s">
         <v>847</v>
-      </c>
-      <c r="F436" t="s">
-        <v>848</v>
       </c>
       <c r="G436" t="n">
         <v>1</v>
@@ -17019,10 +17004,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
+        <v>848</v>
+      </c>
+      <c r="F437" t="s">
         <v>849</v>
-      </c>
-      <c r="F437" t="s">
-        <v>850</v>
       </c>
       <c r="G437" t="n">
         <v>1</v>
@@ -17048,10 +17033,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
+        <v>850</v>
+      </c>
+      <c r="F438" t="s">
         <v>851</v>
-      </c>
-      <c r="F438" t="s">
-        <v>852</v>
       </c>
       <c r="G438" t="n">
         <v>1</v>
@@ -17077,10 +17062,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
+        <v>852</v>
+      </c>
+      <c r="F439" t="s">
         <v>853</v>
-      </c>
-      <c r="F439" t="s">
-        <v>854</v>
       </c>
       <c r="G439" t="n">
         <v>1</v>
@@ -17106,10 +17091,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
+        <v>854</v>
+      </c>
+      <c r="F440" t="s">
         <v>855</v>
-      </c>
-      <c r="F440" t="s">
-        <v>856</v>
       </c>
       <c r="G440" t="n">
         <v>1</v>
@@ -17135,10 +17120,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
+        <v>856</v>
+      </c>
+      <c r="F441" t="s">
         <v>857</v>
-      </c>
-      <c r="F441" t="s">
-        <v>858</v>
       </c>
       <c r="G441" t="n">
         <v>1</v>
@@ -17164,10 +17149,10 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
+        <v>858</v>
+      </c>
+      <c r="F442" t="s">
         <v>859</v>
-      </c>
-      <c r="F442" t="s">
-        <v>860</v>
       </c>
       <c r="G442" t="n">
         <v>1</v>
@@ -17193,10 +17178,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
+        <v>860</v>
+      </c>
+      <c r="F443" t="s">
         <v>861</v>
-      </c>
-      <c r="F443" t="s">
-        <v>862</v>
       </c>
       <c r="G443" t="n">
         <v>1</v>
@@ -17222,10 +17207,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
+        <v>862</v>
+      </c>
+      <c r="F444" t="s">
         <v>863</v>
-      </c>
-      <c r="F444" t="s">
-        <v>864</v>
       </c>
       <c r="G444" t="n">
         <v>1</v>
@@ -17251,10 +17236,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
+        <v>864</v>
+      </c>
+      <c r="F445" t="s">
         <v>865</v>
-      </c>
-      <c r="F445" t="s">
-        <v>866</v>
       </c>
       <c r="G445" t="n">
         <v>1</v>
@@ -17280,10 +17265,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
+        <v>866</v>
+      </c>
+      <c r="F446" t="s">
         <v>867</v>
-      </c>
-      <c r="F446" t="s">
-        <v>868</v>
       </c>
       <c r="G446" t="n">
         <v>1</v>
@@ -17309,10 +17294,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
+        <v>868</v>
+      </c>
+      <c r="F447" t="s">
         <v>869</v>
-      </c>
-      <c r="F447" t="s">
-        <v>870</v>
       </c>
       <c r="G447" t="n">
         <v>1</v>
@@ -17338,10 +17323,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
+        <v>870</v>
+      </c>
+      <c r="F448" t="s">
         <v>871</v>
-      </c>
-      <c r="F448" t="s">
-        <v>872</v>
       </c>
       <c r="G448" t="n">
         <v>1</v>
@@ -17367,10 +17352,10 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
+        <v>872</v>
+      </c>
+      <c r="F449" t="s">
         <v>873</v>
-      </c>
-      <c r="F449" t="s">
-        <v>874</v>
       </c>
       <c r="G449" t="n">
         <v>1</v>
@@ -17396,10 +17381,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
+        <v>874</v>
+      </c>
+      <c r="F450" t="s">
         <v>875</v>
-      </c>
-      <c r="F450" t="s">
-        <v>876</v>
       </c>
       <c r="G450" t="n">
         <v>1</v>
@@ -17425,10 +17410,10 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
+        <v>876</v>
+      </c>
+      <c r="F451" t="s">
         <v>877</v>
-      </c>
-      <c r="F451" t="s">
-        <v>878</v>
       </c>
       <c r="G451" t="n">
         <v>1</v>
@@ -17454,10 +17439,10 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
+        <v>878</v>
+      </c>
+      <c r="F452" t="s">
         <v>879</v>
-      </c>
-      <c r="F452" t="s">
-        <v>880</v>
       </c>
       <c r="G452" t="n">
         <v>1</v>
@@ -17483,10 +17468,10 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
+        <v>880</v>
+      </c>
+      <c r="F453" t="s">
         <v>881</v>
-      </c>
-      <c r="F453" t="s">
-        <v>882</v>
       </c>
       <c r="G453" t="n">
         <v>1</v>
@@ -17512,10 +17497,10 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
+        <v>882</v>
+      </c>
+      <c r="F454" t="s">
         <v>883</v>
-      </c>
-      <c r="F454" t="s">
-        <v>884</v>
       </c>
       <c r="G454" t="n">
         <v>1</v>
@@ -17541,10 +17526,10 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
+        <v>884</v>
+      </c>
+      <c r="F455" t="s">
         <v>885</v>
-      </c>
-      <c r="F455" t="s">
-        <v>886</v>
       </c>
       <c r="G455" t="n">
         <v>1</v>
@@ -17570,10 +17555,10 @@
         <v>455</v>
       </c>
       <c r="E456" t="s">
+        <v>886</v>
+      </c>
+      <c r="F456" t="s">
         <v>887</v>
-      </c>
-      <c r="F456" t="s">
-        <v>888</v>
       </c>
       <c r="G456" t="n">
         <v>1</v>
@@ -17599,10 +17584,10 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
+        <v>888</v>
+      </c>
+      <c r="F457" t="s">
         <v>889</v>
-      </c>
-      <c r="F457" t="s">
-        <v>890</v>
       </c>
       <c r="G457" t="n">
         <v>1</v>
@@ -17628,10 +17613,10 @@
         <v>457</v>
       </c>
       <c r="E458" t="s">
+        <v>890</v>
+      </c>
+      <c r="F458" t="s">
         <v>891</v>
-      </c>
-      <c r="F458" t="s">
-        <v>892</v>
       </c>
       <c r="G458" t="n">
         <v>1</v>
@@ -17657,10 +17642,10 @@
         <v>458</v>
       </c>
       <c r="E459" t="s">
+        <v>892</v>
+      </c>
+      <c r="F459" t="s">
         <v>893</v>
-      </c>
-      <c r="F459" t="s">
-        <v>894</v>
       </c>
       <c r="G459" t="n">
         <v>1</v>
@@ -17686,10 +17671,10 @@
         <v>459</v>
       </c>
       <c r="E460" t="s">
+        <v>894</v>
+      </c>
+      <c r="F460" t="s">
         <v>895</v>
-      </c>
-      <c r="F460" t="s">
-        <v>896</v>
       </c>
       <c r="G460" t="n">
         <v>1</v>
@@ -17715,10 +17700,10 @@
         <v>460</v>
       </c>
       <c r="E461" t="s">
+        <v>896</v>
+      </c>
+      <c r="F461" t="s">
         <v>897</v>
-      </c>
-      <c r="F461" t="s">
-        <v>898</v>
       </c>
       <c r="G461" t="n">
         <v>1</v>
@@ -17744,10 +17729,10 @@
         <v>461</v>
       </c>
       <c r="E462" t="s">
+        <v>898</v>
+      </c>
+      <c r="F462" t="s">
         <v>899</v>
-      </c>
-      <c r="F462" t="s">
-        <v>900</v>
       </c>
       <c r="G462" t="n">
         <v>1</v>
@@ -17773,10 +17758,10 @@
         <v>462</v>
       </c>
       <c r="E463" t="s">
+        <v>900</v>
+      </c>
+      <c r="F463" t="s">
         <v>901</v>
-      </c>
-      <c r="F463" t="s">
-        <v>902</v>
       </c>
       <c r="G463" t="n">
         <v>1</v>
@@ -17802,10 +17787,10 @@
         <v>463</v>
       </c>
       <c r="E464" t="s">
+        <v>902</v>
+      </c>
+      <c r="F464" t="s">
         <v>903</v>
-      </c>
-      <c r="F464" t="s">
-        <v>904</v>
       </c>
       <c r="G464" t="n">
         <v>1</v>
@@ -17831,10 +17816,10 @@
         <v>464</v>
       </c>
       <c r="E465" t="s">
+        <v>904</v>
+      </c>
+      <c r="F465" t="s">
         <v>905</v>
-      </c>
-      <c r="F465" t="s">
-        <v>906</v>
       </c>
       <c r="G465" t="n">
         <v>1</v>
@@ -17860,10 +17845,10 @@
         <v>465</v>
       </c>
       <c r="E466" t="s">
+        <v>906</v>
+      </c>
+      <c r="F466" t="s">
         <v>907</v>
-      </c>
-      <c r="F466" t="s">
-        <v>908</v>
       </c>
       <c r="G466" t="n">
         <v>1</v>
@@ -17889,10 +17874,10 @@
         <v>466</v>
       </c>
       <c r="E467" t="s">
+        <v>908</v>
+      </c>
+      <c r="F467" t="s">
         <v>909</v>
-      </c>
-      <c r="F467" t="s">
-        <v>910</v>
       </c>
       <c r="G467" t="n">
         <v>1</v>
@@ -17918,10 +17903,10 @@
         <v>467</v>
       </c>
       <c r="E468" t="s">
+        <v>910</v>
+      </c>
+      <c r="F468" t="s">
         <v>911</v>
-      </c>
-      <c r="F468" t="s">
-        <v>912</v>
       </c>
       <c r="G468" t="n">
         <v>1</v>
@@ -17947,10 +17932,10 @@
         <v>468</v>
       </c>
       <c r="E469" t="s">
+        <v>912</v>
+      </c>
+      <c r="F469" t="s">
         <v>913</v>
-      </c>
-      <c r="F469" t="s">
-        <v>914</v>
       </c>
       <c r="G469" t="n">
         <v>1</v>
@@ -17976,10 +17961,10 @@
         <v>469</v>
       </c>
       <c r="E470" t="s">
+        <v>914</v>
+      </c>
+      <c r="F470" t="s">
         <v>915</v>
-      </c>
-      <c r="F470" t="s">
-        <v>916</v>
       </c>
       <c r="G470" t="n">
         <v>1</v>
@@ -18005,10 +17990,10 @@
         <v>470</v>
       </c>
       <c r="E471" t="s">
+        <v>916</v>
+      </c>
+      <c r="F471" t="s">
         <v>917</v>
-      </c>
-      <c r="F471" t="s">
-        <v>918</v>
       </c>
       <c r="G471" t="n">
         <v>1</v>
@@ -18034,10 +18019,10 @@
         <v>471</v>
       </c>
       <c r="E472" t="s">
+        <v>918</v>
+      </c>
+      <c r="F472" t="s">
         <v>919</v>
-      </c>
-      <c r="F472" t="s">
-        <v>920</v>
       </c>
       <c r="G472" t="n">
         <v>1</v>
@@ -18063,10 +18048,10 @@
         <v>472</v>
       </c>
       <c r="E473" t="s">
+        <v>920</v>
+      </c>
+      <c r="F473" t="s">
         <v>921</v>
-      </c>
-      <c r="F473" t="s">
-        <v>922</v>
       </c>
       <c r="G473" t="n">
         <v>1</v>
@@ -18092,10 +18077,10 @@
         <v>473</v>
       </c>
       <c r="E474" t="s">
+        <v>922</v>
+      </c>
+      <c r="F474" t="s">
         <v>923</v>
-      </c>
-      <c r="F474" t="s">
-        <v>924</v>
       </c>
       <c r="G474" t="n">
         <v>1</v>
@@ -18121,10 +18106,10 @@
         <v>474</v>
       </c>
       <c r="E475" t="s">
+        <v>924</v>
+      </c>
+      <c r="F475" t="s">
         <v>925</v>
-      </c>
-      <c r="F475" t="s">
-        <v>926</v>
       </c>
       <c r="G475" t="n">
         <v>1</v>
@@ -18150,10 +18135,10 @@
         <v>475</v>
       </c>
       <c r="E476" t="s">
+        <v>926</v>
+      </c>
+      <c r="F476" t="s">
         <v>927</v>
-      </c>
-      <c r="F476" t="s">
-        <v>928</v>
       </c>
       <c r="G476" t="n">
         <v>1</v>
@@ -18179,10 +18164,10 @@
         <v>476</v>
       </c>
       <c r="E477" t="s">
+        <v>928</v>
+      </c>
+      <c r="F477" t="s">
         <v>929</v>
-      </c>
-      <c r="F477" t="s">
-        <v>930</v>
       </c>
       <c r="G477" t="n">
         <v>1</v>
@@ -18208,10 +18193,10 @@
         <v>477</v>
       </c>
       <c r="E478" t="s">
+        <v>930</v>
+      </c>
+      <c r="F478" t="s">
         <v>931</v>
-      </c>
-      <c r="F478" t="s">
-        <v>932</v>
       </c>
       <c r="G478" t="n">
         <v>1</v>
@@ -18237,10 +18222,10 @@
         <v>478</v>
       </c>
       <c r="E479" t="s">
+        <v>932</v>
+      </c>
+      <c r="F479" t="s">
         <v>933</v>
-      </c>
-      <c r="F479" t="s">
-        <v>934</v>
       </c>
       <c r="G479" t="n">
         <v>1</v>
@@ -18266,10 +18251,10 @@
         <v>479</v>
       </c>
       <c r="E480" t="s">
+        <v>934</v>
+      </c>
+      <c r="F480" t="s">
         <v>935</v>
-      </c>
-      <c r="F480" t="s">
-        <v>936</v>
       </c>
       <c r="G480" t="n">
         <v>1</v>
@@ -18295,10 +18280,10 @@
         <v>480</v>
       </c>
       <c r="E481" t="s">
+        <v>936</v>
+      </c>
+      <c r="F481" t="s">
         <v>937</v>
-      </c>
-      <c r="F481" t="s">
-        <v>938</v>
       </c>
       <c r="G481" t="n">
         <v>1</v>
@@ -18324,10 +18309,10 @@
         <v>481</v>
       </c>
       <c r="E482" t="s">
+        <v>938</v>
+      </c>
+      <c r="F482" t="s">
         <v>939</v>
-      </c>
-      <c r="F482" t="s">
-        <v>940</v>
       </c>
       <c r="G482" t="n">
         <v>1</v>
@@ -18353,10 +18338,10 @@
         <v>482</v>
       </c>
       <c r="E483" t="s">
+        <v>940</v>
+      </c>
+      <c r="F483" t="s">
         <v>941</v>
-      </c>
-      <c r="F483" t="s">
-        <v>942</v>
       </c>
       <c r="G483" t="n">
         <v>1</v>
@@ -18382,10 +18367,10 @@
         <v>483</v>
       </c>
       <c r="E484" t="s">
+        <v>942</v>
+      </c>
+      <c r="F484" t="s">
         <v>943</v>
-      </c>
-      <c r="F484" t="s">
-        <v>944</v>
       </c>
       <c r="G484" t="n">
         <v>1</v>
@@ -18411,10 +18396,10 @@
         <v>484</v>
       </c>
       <c r="E485" t="s">
+        <v>944</v>
+      </c>
+      <c r="F485" t="s">
         <v>945</v>
-      </c>
-      <c r="F485" t="s">
-        <v>946</v>
       </c>
       <c r="G485" t="n">
         <v>2</v>
@@ -18440,10 +18425,10 @@
         <v>485</v>
       </c>
       <c r="E486" t="s">
+        <v>946</v>
+      </c>
+      <c r="F486" t="s">
         <v>947</v>
-      </c>
-      <c r="F486" t="s">
-        <v>948</v>
       </c>
       <c r="G486" t="n">
         <v>2</v>
@@ -18469,10 +18454,10 @@
         <v>486</v>
       </c>
       <c r="E487" t="s">
+        <v>948</v>
+      </c>
+      <c r="F487" t="s">
         <v>949</v>
-      </c>
-      <c r="F487" t="s">
-        <v>950</v>
       </c>
       <c r="G487" t="n">
         <v>1</v>
@@ -18498,10 +18483,10 @@
         <v>487</v>
       </c>
       <c r="E488" t="s">
+        <v>950</v>
+      </c>
+      <c r="F488" t="s">
         <v>951</v>
-      </c>
-      <c r="F488" t="s">
-        <v>952</v>
       </c>
       <c r="G488" t="n">
         <v>1</v>
@@ -18527,10 +18512,10 @@
         <v>488</v>
       </c>
       <c r="E489" t="s">
+        <v>952</v>
+      </c>
+      <c r="F489" t="s">
         <v>953</v>
-      </c>
-      <c r="F489" t="s">
-        <v>954</v>
       </c>
       <c r="G489" t="n">
         <v>1</v>
@@ -18556,10 +18541,10 @@
         <v>489</v>
       </c>
       <c r="E490" t="s">
+        <v>954</v>
+      </c>
+      <c r="F490" t="s">
         <v>955</v>
-      </c>
-      <c r="F490" t="s">
-        <v>956</v>
       </c>
       <c r="G490" t="n">
         <v>1</v>
@@ -18585,10 +18570,10 @@
         <v>490</v>
       </c>
       <c r="E491" t="s">
+        <v>956</v>
+      </c>
+      <c r="F491" t="s">
         <v>957</v>
-      </c>
-      <c r="F491" t="s">
-        <v>958</v>
       </c>
       <c r="G491" t="n">
         <v>1</v>
@@ -18614,10 +18599,10 @@
         <v>491</v>
       </c>
       <c r="E492" t="s">
+        <v>958</v>
+      </c>
+      <c r="F492" t="s">
         <v>959</v>
-      </c>
-      <c r="F492" t="s">
-        <v>960</v>
       </c>
       <c r="G492" t="n">
         <v>1</v>
@@ -18643,10 +18628,10 @@
         <v>492</v>
       </c>
       <c r="E493" t="s">
+        <v>960</v>
+      </c>
+      <c r="F493" t="s">
         <v>961</v>
-      </c>
-      <c r="F493" t="s">
-        <v>962</v>
       </c>
       <c r="G493" t="n">
         <v>1</v>
@@ -18672,10 +18657,10 @@
         <v>493</v>
       </c>
       <c r="E494" t="s">
+        <v>962</v>
+      </c>
+      <c r="F494" t="s">
         <v>963</v>
-      </c>
-      <c r="F494" t="s">
-        <v>964</v>
       </c>
       <c r="G494" t="n">
         <v>1</v>
@@ -18701,10 +18686,10 @@
         <v>494</v>
       </c>
       <c r="E495" t="s">
+        <v>964</v>
+      </c>
+      <c r="F495" t="s">
         <v>965</v>
-      </c>
-      <c r="F495" t="s">
-        <v>966</v>
       </c>
       <c r="G495" t="n">
         <v>1</v>
@@ -18730,10 +18715,10 @@
         <v>495</v>
       </c>
       <c r="E496" t="s">
+        <v>966</v>
+      </c>
+      <c r="F496" t="s">
         <v>967</v>
-      </c>
-      <c r="F496" t="s">
-        <v>968</v>
       </c>
       <c r="G496" t="n">
         <v>1</v>
@@ -18759,10 +18744,10 @@
         <v>496</v>
       </c>
       <c r="E497" t="s">
+        <v>968</v>
+      </c>
+      <c r="F497" t="s">
         <v>969</v>
-      </c>
-      <c r="F497" t="s">
-        <v>970</v>
       </c>
       <c r="G497" t="n">
         <v>1</v>
@@ -18788,10 +18773,10 @@
         <v>497</v>
       </c>
       <c r="E498" t="s">
+        <v>970</v>
+      </c>
+      <c r="F498" t="s">
         <v>971</v>
-      </c>
-      <c r="F498" t="s">
-        <v>972</v>
       </c>
       <c r="G498" t="n">
         <v>1</v>
@@ -18817,10 +18802,10 @@
         <v>498</v>
       </c>
       <c r="E499" t="s">
+        <v>972</v>
+      </c>
+      <c r="F499" t="s">
         <v>973</v>
-      </c>
-      <c r="F499" t="s">
-        <v>974</v>
       </c>
       <c r="G499" t="n">
         <v>1</v>
@@ -18846,10 +18831,10 @@
         <v>499</v>
       </c>
       <c r="E500" t="s">
+        <v>974</v>
+      </c>
+      <c r="F500" t="s">
         <v>975</v>
-      </c>
-      <c r="F500" t="s">
-        <v>976</v>
       </c>
       <c r="G500" t="n">
         <v>1</v>
@@ -18875,10 +18860,10 @@
         <v>500</v>
       </c>
       <c r="E501" t="s">
+        <v>976</v>
+      </c>
+      <c r="F501" t="s">
         <v>977</v>
-      </c>
-      <c r="F501" t="s">
-        <v>978</v>
       </c>
       <c r="G501" t="n">
         <v>1</v>
@@ -18904,10 +18889,10 @@
         <v>501</v>
       </c>
       <c r="E502" t="s">
+        <v>978</v>
+      </c>
+      <c r="F502" t="s">
         <v>979</v>
-      </c>
-      <c r="F502" t="s">
-        <v>980</v>
       </c>
       <c r="G502" t="n">
         <v>1</v>
@@ -18933,10 +18918,10 @@
         <v>502</v>
       </c>
       <c r="E503" t="s">
+        <v>980</v>
+      </c>
+      <c r="F503" t="s">
         <v>981</v>
-      </c>
-      <c r="F503" t="s">
-        <v>982</v>
       </c>
       <c r="G503" t="n">
         <v>1</v>
@@ -18962,10 +18947,10 @@
         <v>503</v>
       </c>
       <c r="E504" t="s">
+        <v>982</v>
+      </c>
+      <c r="F504" t="s">
         <v>983</v>
-      </c>
-      <c r="F504" t="s">
-        <v>984</v>
       </c>
       <c r="G504" t="n">
         <v>1</v>
@@ -18991,10 +18976,10 @@
         <v>504</v>
       </c>
       <c r="E505" t="s">
+        <v>984</v>
+      </c>
+      <c r="F505" t="s">
         <v>985</v>
-      </c>
-      <c r="F505" t="s">
-        <v>986</v>
       </c>
       <c r="G505" t="n">
         <v>1</v>
@@ -19020,10 +19005,10 @@
         <v>505</v>
       </c>
       <c r="E506" t="s">
+        <v>986</v>
+      </c>
+      <c r="F506" t="s">
         <v>987</v>
-      </c>
-      <c r="F506" t="s">
-        <v>988</v>
       </c>
       <c r="G506" t="n">
         <v>1</v>
@@ -19049,10 +19034,10 @@
         <v>506</v>
       </c>
       <c r="E507" t="s">
+        <v>988</v>
+      </c>
+      <c r="F507" t="s">
         <v>989</v>
-      </c>
-      <c r="F507" t="s">
-        <v>990</v>
       </c>
       <c r="G507" t="n">
         <v>1</v>
@@ -19078,10 +19063,10 @@
         <v>507</v>
       </c>
       <c r="E508" t="s">
+        <v>990</v>
+      </c>
+      <c r="F508" t="s">
         <v>991</v>
-      </c>
-      <c r="F508" t="s">
-        <v>992</v>
       </c>
       <c r="G508" t="n">
         <v>1</v>
@@ -19107,10 +19092,10 @@
         <v>508</v>
       </c>
       <c r="E509" t="s">
+        <v>992</v>
+      </c>
+      <c r="F509" t="s">
         <v>993</v>
-      </c>
-      <c r="F509" t="s">
-        <v>994</v>
       </c>
       <c r="G509" t="n">
         <v>1</v>
@@ -19136,10 +19121,10 @@
         <v>509</v>
       </c>
       <c r="E510" t="s">
+        <v>994</v>
+      </c>
+      <c r="F510" t="s">
         <v>995</v>
-      </c>
-      <c r="F510" t="s">
-        <v>996</v>
       </c>
       <c r="G510" t="n">
         <v>1</v>
@@ -19165,10 +19150,10 @@
         <v>510</v>
       </c>
       <c r="E511" t="s">
+        <v>996</v>
+      </c>
+      <c r="F511" t="s">
         <v>997</v>
-      </c>
-      <c r="F511" t="s">
-        <v>998</v>
       </c>
       <c r="G511" t="n">
         <v>1</v>
@@ -19194,10 +19179,10 @@
         <v>511</v>
       </c>
       <c r="E512" t="s">
+        <v>998</v>
+      </c>
+      <c r="F512" t="s">
         <v>999</v>
-      </c>
-      <c r="F512" t="s">
-        <v>1000</v>
       </c>
       <c r="G512" t="n">
         <v>1</v>
@@ -19223,10 +19208,10 @@
         <v>512</v>
       </c>
       <c r="E513" t="s">
+        <v>1000</v>
+      </c>
+      <c r="F513" t="s">
         <v>1001</v>
-      </c>
-      <c r="F513" t="s">
-        <v>1002</v>
       </c>
       <c r="G513" t="n">
         <v>1</v>
@@ -19252,10 +19237,10 @@
         <v>513</v>
       </c>
       <c r="E514" t="s">
+        <v>1002</v>
+      </c>
+      <c r="F514" t="s">
         <v>1003</v>
-      </c>
-      <c r="F514" t="s">
-        <v>1004</v>
       </c>
       <c r="G514" t="n">
         <v>1</v>
@@ -19281,10 +19266,10 @@
         <v>514</v>
       </c>
       <c r="E515" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F515" t="s">
         <v>1005</v>
-      </c>
-      <c r="F515" t="s">
-        <v>1006</v>
       </c>
       <c r="G515" t="n">
         <v>1</v>
@@ -19310,10 +19295,10 @@
         <v>515</v>
       </c>
       <c r="E516" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F516" t="s">
         <v>1007</v>
-      </c>
-      <c r="F516" t="s">
-        <v>1008</v>
       </c>
       <c r="G516" t="n">
         <v>1</v>
@@ -19339,10 +19324,10 @@
         <v>516</v>
       </c>
       <c r="E517" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F517" t="s">
         <v>1009</v>
-      </c>
-      <c r="F517" t="s">
-        <v>1010</v>
       </c>
       <c r="G517" t="n">
         <v>1</v>
@@ -19368,10 +19353,10 @@
         <v>517</v>
       </c>
       <c r="E518" t="s">
+        <v>1010</v>
+      </c>
+      <c r="F518" t="s">
         <v>1011</v>
-      </c>
-      <c r="F518" t="s">
-        <v>1012</v>
       </c>
       <c r="G518" t="n">
         <v>1</v>
@@ -19397,10 +19382,10 @@
         <v>518</v>
       </c>
       <c r="E519" t="s">
+        <v>1012</v>
+      </c>
+      <c r="F519" t="s">
         <v>1013</v>
-      </c>
-      <c r="F519" t="s">
-        <v>1014</v>
       </c>
       <c r="G519" t="n">
         <v>1</v>
@@ -19426,10 +19411,10 @@
         <v>519</v>
       </c>
       <c r="E520" t="s">
+        <v>1014</v>
+      </c>
+      <c r="F520" t="s">
         <v>1015</v>
-      </c>
-      <c r="F520" t="s">
-        <v>1016</v>
       </c>
       <c r="G520" t="n">
         <v>1</v>
@@ -19455,10 +19440,10 @@
         <v>520</v>
       </c>
       <c r="E521" t="s">
+        <v>1016</v>
+      </c>
+      <c r="F521" t="s">
         <v>1017</v>
-      </c>
-      <c r="F521" t="s">
-        <v>1018</v>
       </c>
       <c r="G521" t="n">
         <v>1</v>
@@ -19484,10 +19469,10 @@
         <v>521</v>
       </c>
       <c r="E522" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F522" t="s">
         <v>1019</v>
-      </c>
-      <c r="F522" t="s">
-        <v>1020</v>
       </c>
       <c r="G522" t="n">
         <v>1</v>
@@ -19513,10 +19498,10 @@
         <v>522</v>
       </c>
       <c r="E523" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F523" t="s">
         <v>1021</v>
-      </c>
-      <c r="F523" t="s">
-        <v>1022</v>
       </c>
       <c r="G523" t="n">
         <v>1</v>
@@ -19542,10 +19527,10 @@
         <v>523</v>
       </c>
       <c r="E524" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F524" t="s">
         <v>1023</v>
-      </c>
-      <c r="F524" t="s">
-        <v>1024</v>
       </c>
       <c r="G524" t="n">
         <v>1</v>
@@ -19571,10 +19556,10 @@
         <v>524</v>
       </c>
       <c r="E525" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F525" t="s">
         <v>1025</v>
-      </c>
-      <c r="F525" t="s">
-        <v>1026</v>
       </c>
       <c r="G525" t="n">
         <v>1</v>
@@ -19600,10 +19585,10 @@
         <v>525</v>
       </c>
       <c r="E526" t="s">
+        <v>1026</v>
+      </c>
+      <c r="F526" t="s">
         <v>1027</v>
-      </c>
-      <c r="F526" t="s">
-        <v>1028</v>
       </c>
       <c r="G526" t="n">
         <v>1</v>
@@ -19629,10 +19614,10 @@
         <v>526</v>
       </c>
       <c r="E527" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F527" t="s">
         <v>1029</v>
-      </c>
-      <c r="F527" t="s">
-        <v>1030</v>
       </c>
       <c r="G527" t="n">
         <v>1</v>
@@ -19658,10 +19643,10 @@
         <v>527</v>
       </c>
       <c r="E528" t="s">
+        <v>1030</v>
+      </c>
+      <c r="F528" t="s">
         <v>1031</v>
-      </c>
-      <c r="F528" t="s">
-        <v>1032</v>
       </c>
       <c r="G528" t="n">
         <v>1</v>
@@ -19687,10 +19672,10 @@
         <v>528</v>
       </c>
       <c r="E529" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F529" t="s">
         <v>1033</v>
-      </c>
-      <c r="F529" t="s">
-        <v>1034</v>
       </c>
       <c r="G529" t="n">
         <v>1</v>
@@ -19716,10 +19701,10 @@
         <v>529</v>
       </c>
       <c r="E530" t="s">
+        <v>1034</v>
+      </c>
+      <c r="F530" t="s">
         <v>1035</v>
-      </c>
-      <c r="F530" t="s">
-        <v>1036</v>
       </c>
       <c r="G530" t="n">
         <v>1</v>
@@ -19745,10 +19730,10 @@
         <v>530</v>
       </c>
       <c r="E531" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F531" t="s">
         <v>1037</v>
-      </c>
-      <c r="F531" t="s">
-        <v>1038</v>
       </c>
       <c r="G531" t="n">
         <v>1</v>
@@ -19774,10 +19759,10 @@
         <v>531</v>
       </c>
       <c r="E532" t="s">
+        <v>1038</v>
+      </c>
+      <c r="F532" t="s">
         <v>1039</v>
-      </c>
-      <c r="F532" t="s">
-        <v>1040</v>
       </c>
       <c r="G532" t="n">
         <v>1</v>
@@ -19803,10 +19788,10 @@
         <v>532</v>
       </c>
       <c r="E533" t="s">
+        <v>1040</v>
+      </c>
+      <c r="F533" t="s">
         <v>1041</v>
-      </c>
-      <c r="F533" t="s">
-        <v>1042</v>
       </c>
       <c r="G533" t="n">
         <v>1</v>
@@ -19832,10 +19817,10 @@
         <v>533</v>
       </c>
       <c r="E534" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F534" t="s">
         <v>1043</v>
-      </c>
-      <c r="F534" t="s">
-        <v>1044</v>
       </c>
       <c r="G534" t="n">
         <v>1</v>
@@ -19861,10 +19846,10 @@
         <v>534</v>
       </c>
       <c r="E535" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F535" t="s">
         <v>1045</v>
-      </c>
-      <c r="F535" t="s">
-        <v>1046</v>
       </c>
       <c r="G535" t="n">
         <v>1</v>
@@ -19890,10 +19875,10 @@
         <v>535</v>
       </c>
       <c r="E536" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F536" t="s">
         <v>1047</v>
-      </c>
-      <c r="F536" t="s">
-        <v>1048</v>
       </c>
       <c r="G536" t="n">
         <v>1</v>
@@ -19919,10 +19904,10 @@
         <v>536</v>
       </c>
       <c r="E537" t="s">
+        <v>1048</v>
+      </c>
+      <c r="F537" t="s">
         <v>1049</v>
-      </c>
-      <c r="F537" t="s">
-        <v>1050</v>
       </c>
       <c r="G537" t="n">
         <v>1</v>
@@ -19948,10 +19933,10 @@
         <v>537</v>
       </c>
       <c r="E538" t="s">
+        <v>1050</v>
+      </c>
+      <c r="F538" t="s">
         <v>1051</v>
-      </c>
-      <c r="F538" t="s">
-        <v>1052</v>
       </c>
       <c r="G538" t="n">
         <v>1</v>
@@ -19977,10 +19962,10 @@
         <v>538</v>
       </c>
       <c r="E539" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F539" t="s">
         <v>1053</v>
-      </c>
-      <c r="F539" t="s">
-        <v>1054</v>
       </c>
       <c r="G539" t="n">
         <v>1</v>
@@ -20006,10 +19991,10 @@
         <v>539</v>
       </c>
       <c r="E540" t="s">
+        <v>1054</v>
+      </c>
+      <c r="F540" t="s">
         <v>1055</v>
-      </c>
-      <c r="F540" t="s">
-        <v>1056</v>
       </c>
       <c r="G540" t="n">
         <v>1</v>
@@ -20035,10 +20020,10 @@
         <v>540</v>
       </c>
       <c r="E541" t="s">
+        <v>1056</v>
+      </c>
+      <c r="F541" t="s">
         <v>1057</v>
-      </c>
-      <c r="F541" t="s">
-        <v>1058</v>
       </c>
       <c r="G541" t="n">
         <v>1</v>
@@ -20064,10 +20049,10 @@
         <v>541</v>
       </c>
       <c r="E542" t="s">
+        <v>1058</v>
+      </c>
+      <c r="F542" t="s">
         <v>1059</v>
-      </c>
-      <c r="F542" t="s">
-        <v>1060</v>
       </c>
       <c r="G542" t="n">
         <v>1</v>
@@ -20093,10 +20078,10 @@
         <v>542</v>
       </c>
       <c r="E543" t="s">
+        <v>1060</v>
+      </c>
+      <c r="F543" t="s">
         <v>1061</v>
-      </c>
-      <c r="F543" t="s">
-        <v>1062</v>
       </c>
       <c r="G543" t="n">
         <v>1</v>
@@ -20122,10 +20107,10 @@
         <v>543</v>
       </c>
       <c r="E544" t="s">
+        <v>1062</v>
+      </c>
+      <c r="F544" t="s">
         <v>1063</v>
-      </c>
-      <c r="F544" t="s">
-        <v>1064</v>
       </c>
       <c r="G544" t="n">
         <v>1</v>
@@ -20151,10 +20136,10 @@
         <v>544</v>
       </c>
       <c r="E545" t="s">
+        <v>1064</v>
+      </c>
+      <c r="F545" t="s">
         <v>1065</v>
-      </c>
-      <c r="F545" t="s">
-        <v>1066</v>
       </c>
       <c r="G545" t="n">
         <v>1</v>
@@ -20180,10 +20165,10 @@
         <v>545</v>
       </c>
       <c r="E546" t="s">
+        <v>1066</v>
+      </c>
+      <c r="F546" t="s">
         <v>1067</v>
-      </c>
-      <c r="F546" t="s">
-        <v>1068</v>
       </c>
       <c r="G546" t="n">
         <v>1</v>
@@ -20209,10 +20194,10 @@
         <v>546</v>
       </c>
       <c r="E547" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F547" t="s">
         <v>1069</v>
-      </c>
-      <c r="F547" t="s">
-        <v>1070</v>
       </c>
       <c r="G547" t="n">
         <v>1</v>
@@ -20238,10 +20223,10 @@
         <v>547</v>
       </c>
       <c r="E548" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F548" t="s">
         <v>1071</v>
-      </c>
-      <c r="F548" t="s">
-        <v>1072</v>
       </c>
       <c r="G548" t="n">
         <v>1</v>
@@ -20267,10 +20252,10 @@
         <v>548</v>
       </c>
       <c r="E549" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F549" t="s">
         <v>1073</v>
-      </c>
-      <c r="F549" t="s">
-        <v>1074</v>
       </c>
       <c r="G549" t="n">
         <v>1</v>
@@ -20296,10 +20281,10 @@
         <v>549</v>
       </c>
       <c r="E550" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F550" t="s">
         <v>1075</v>
-      </c>
-      <c r="F550" t="s">
-        <v>1076</v>
       </c>
       <c r="G550" t="n">
         <v>1</v>
@@ -20325,10 +20310,10 @@
         <v>550</v>
       </c>
       <c r="E551" t="s">
+        <v>1076</v>
+      </c>
+      <c r="F551" t="s">
         <v>1077</v>
-      </c>
-      <c r="F551" t="s">
-        <v>1078</v>
       </c>
       <c r="G551" t="n">
         <v>1</v>
@@ -20354,10 +20339,10 @@
         <v>551</v>
       </c>
       <c r="E552" t="s">
+        <v>1078</v>
+      </c>
+      <c r="F552" t="s">
         <v>1079</v>
-      </c>
-      <c r="F552" t="s">
-        <v>1080</v>
       </c>
       <c r="G552" t="n">
         <v>1</v>
@@ -20383,10 +20368,10 @@
         <v>552</v>
       </c>
       <c r="E553" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F553" t="s">
         <v>1081</v>
-      </c>
-      <c r="F553" t="s">
-        <v>1082</v>
       </c>
       <c r="G553" t="n">
         <v>1</v>
@@ -20412,10 +20397,10 @@
         <v>553</v>
       </c>
       <c r="E554" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F554" t="s">
         <v>1083</v>
-      </c>
-      <c r="F554" t="s">
-        <v>1084</v>
       </c>
       <c r="G554" t="n">
         <v>1</v>
@@ -20441,10 +20426,10 @@
         <v>554</v>
       </c>
       <c r="E555" t="s">
+        <v>1084</v>
+      </c>
+      <c r="F555" t="s">
         <v>1085</v>
-      </c>
-      <c r="F555" t="s">
-        <v>1086</v>
       </c>
       <c r="G555" t="n">
         <v>1</v>
@@ -20470,10 +20455,10 @@
         <v>555</v>
       </c>
       <c r="E556" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F556" t="s">
         <v>1087</v>
-      </c>
-      <c r="F556" t="s">
-        <v>1088</v>
       </c>
       <c r="G556" t="n">
         <v>1</v>
@@ -20499,10 +20484,10 @@
         <v>556</v>
       </c>
       <c r="E557" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F557" t="s">
         <v>1089</v>
-      </c>
-      <c r="F557" t="s">
-        <v>1090</v>
       </c>
       <c r="G557" t="n">
         <v>2</v>
@@ -20528,10 +20513,10 @@
         <v>557</v>
       </c>
       <c r="E558" t="s">
+        <v>1090</v>
+      </c>
+      <c r="F558" t="s">
         <v>1091</v>
-      </c>
-      <c r="F558" t="s">
-        <v>1092</v>
       </c>
       <c r="G558" t="n">
         <v>1</v>
@@ -20557,10 +20542,10 @@
         <v>558</v>
       </c>
       <c r="E559" t="s">
+        <v>1092</v>
+      </c>
+      <c r="F559" t="s">
         <v>1093</v>
-      </c>
-      <c r="F559" t="s">
-        <v>1094</v>
       </c>
       <c r="G559" t="n">
         <v>1</v>
@@ -20586,10 +20571,10 @@
         <v>559</v>
       </c>
       <c r="E560" t="s">
+        <v>1094</v>
+      </c>
+      <c r="F560" t="s">
         <v>1095</v>
-      </c>
-      <c r="F560" t="s">
-        <v>1096</v>
       </c>
       <c r="G560" t="n">
         <v>1</v>
@@ -20615,10 +20600,10 @@
         <v>560</v>
       </c>
       <c r="E561" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F561" t="s">
         <v>1097</v>
-      </c>
-      <c r="F561" t="s">
-        <v>1098</v>
       </c>
       <c r="G561" t="n">
         <v>2</v>
@@ -20644,10 +20629,10 @@
         <v>561</v>
       </c>
       <c r="E562" t="s">
+        <v>1098</v>
+      </c>
+      <c r="F562" t="s">
         <v>1099</v>
-      </c>
-      <c r="F562" t="s">
-        <v>1100</v>
       </c>
       <c r="G562" t="n">
         <v>1</v>
@@ -20673,10 +20658,10 @@
         <v>562</v>
       </c>
       <c r="E563" t="s">
+        <v>1100</v>
+      </c>
+      <c r="F563" t="s">
         <v>1101</v>
-      </c>
-      <c r="F563" t="s">
-        <v>1102</v>
       </c>
       <c r="G563" t="n">
         <v>1</v>
@@ -20702,10 +20687,10 @@
         <v>563</v>
       </c>
       <c r="E564" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F564" t="s">
         <v>1103</v>
-      </c>
-      <c r="F564" t="s">
-        <v>1104</v>
       </c>
       <c r="G564" t="n">
         <v>1</v>
@@ -20731,10 +20716,10 @@
         <v>564</v>
       </c>
       <c r="E565" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F565" t="s">
-        <v>1106</v>
+        <v>282</v>
       </c>
       <c r="G565" t="n">
         <v>1</v>
@@ -20760,10 +20745,10 @@
         <v>565</v>
       </c>
       <c r="E566" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="F566" t="s">
-        <v>1108</v>
+        <v>440</v>
       </c>
       <c r="G566" t="n">
         <v>1</v>
@@ -20789,10 +20774,10 @@
         <v>566</v>
       </c>
       <c r="E567" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="F567" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="G567" t="n">
         <v>1</v>
@@ -20818,10 +20803,10 @@
         <v>567</v>
       </c>
       <c r="E568" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="F568" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="G568" t="n">
         <v>1</v>
@@ -20847,10 +20832,10 @@
         <v>568</v>
       </c>
       <c r="E569" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="F569" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="G569" t="n">
         <v>1</v>
@@ -20876,10 +20861,10 @@
         <v>569</v>
       </c>
       <c r="E570" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="F570" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="G570" t="n">
         <v>1</v>
@@ -20905,10 +20890,10 @@
         <v>570</v>
       </c>
       <c r="E571" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="F571" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="G571" t="n">
         <v>1</v>
@@ -20934,10 +20919,10 @@
         <v>571</v>
       </c>
       <c r="E572" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="F572" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="G572" t="n">
         <v>1</v>
@@ -20963,10 +20948,10 @@
         <v>572</v>
       </c>
       <c r="E573" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="F573" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="G573" t="n">
         <v>1</v>
@@ -20992,10 +20977,10 @@
         <v>573</v>
       </c>
       <c r="E574" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="F574" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="G574" t="n">
         <v>1</v>
@@ -21021,10 +21006,10 @@
         <v>574</v>
       </c>
       <c r="E575" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="F575" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="G575" t="n">
         <v>1</v>
@@ -21050,10 +21035,10 @@
         <v>575</v>
       </c>
       <c r="E576" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="F576" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="G576" t="n">
         <v>1</v>
@@ -21079,10 +21064,10 @@
         <v>576</v>
       </c>
       <c r="E577" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="F577" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="G577" t="n">
         <v>1</v>
@@ -21108,10 +21093,10 @@
         <v>577</v>
       </c>
       <c r="E578" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="F578" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="G578" t="n">
         <v>1</v>
@@ -21137,10 +21122,10 @@
         <v>578</v>
       </c>
       <c r="E579" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="F579" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="G579" t="n">
         <v>3</v>
@@ -21166,10 +21151,10 @@
         <v>579</v>
       </c>
       <c r="E580" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="F580" t="s">
-        <v>1136</v>
+        <v>428</v>
       </c>
       <c r="G580" t="n">
         <v>1</v>
@@ -21195,10 +21180,10 @@
         <v>580</v>
       </c>
       <c r="E581" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
       <c r="F581" t="s">
-        <v>1138</v>
+        <v>1134</v>
       </c>
       <c r="G581" t="n">
         <v>1</v>
@@ -21224,10 +21209,10 @@
         <v>581</v>
       </c>
       <c r="E582" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
       <c r="F582" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
       <c r="G582" t="n">
         <v>1</v>
@@ -21253,10 +21238,10 @@
         <v>582</v>
       </c>
       <c r="E583" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
       <c r="F583" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="G583" t="n">
         <v>1</v>
@@ -21282,10 +21267,10 @@
         <v>583</v>
       </c>
       <c r="E584" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
       <c r="F584" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
       <c r="G584" t="n">
         <v>1</v>
@@ -21311,10 +21296,10 @@
         <v>584</v>
       </c>
       <c r="E585" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="F585" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="G585" t="n">
         <v>1</v>
@@ -21340,10 +21325,10 @@
         <v>585</v>
       </c>
       <c r="E586" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
       <c r="F586" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
       <c r="G586" t="n">
         <v>1</v>
@@ -21369,10 +21354,10 @@
         <v>586</v>
       </c>
       <c r="E587" t="s">
-        <v>1147</v>
+        <v>1143</v>
       </c>
       <c r="F587" t="s">
-        <v>1148</v>
+        <v>1144</v>
       </c>
       <c r="G587" t="n">
         <v>1</v>
@@ -21398,10 +21383,10 @@
         <v>587</v>
       </c>
       <c r="E588" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="F588" t="s">
-        <v>1150</v>
+        <v>1146</v>
       </c>
       <c r="G588" t="n">
         <v>1</v>
@@ -21427,10 +21412,10 @@
         <v>588</v>
       </c>
       <c r="E589" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
       <c r="F589" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="G589" t="n">
         <v>1</v>
@@ -21456,10 +21441,10 @@
         <v>589</v>
       </c>
       <c r="E590" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
       <c r="F590" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
       <c r="G590" t="n">
         <v>1</v>
@@ -21485,10 +21470,10 @@
         <v>590</v>
       </c>
       <c r="E591" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="F591" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="G591" t="n">
         <v>1</v>
@@ -21514,10 +21499,10 @@
         <v>591</v>
       </c>
       <c r="E592" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
       <c r="F592" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
       <c r="G592" t="n">
         <v>1</v>
@@ -21543,10 +21528,10 @@
         <v>592</v>
       </c>
       <c r="E593" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
       <c r="F593" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
       <c r="G593" t="n">
         <v>1</v>
@@ -21572,10 +21557,10 @@
         <v>593</v>
       </c>
       <c r="E594" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
       <c r="F594" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
       <c r="G594" t="n">
         <v>1</v>
@@ -21601,10 +21586,10 @@
         <v>594</v>
       </c>
       <c r="E595" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
       <c r="F595" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="G595" t="n">
         <v>1</v>
@@ -21630,10 +21615,10 @@
         <v>595</v>
       </c>
       <c r="E596" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
       <c r="F596" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
       <c r="G596" t="n">
         <v>1</v>
@@ -21659,10 +21644,10 @@
         <v>596</v>
       </c>
       <c r="E597" t="s">
-        <v>1167</v>
+        <v>1163</v>
       </c>
       <c r="F597" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="G597" t="n">
         <v>1</v>
@@ -21688,10 +21673,10 @@
         <v>597</v>
       </c>
       <c r="E598" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
       <c r="F598" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
       <c r="G598" t="n">
         <v>1</v>
@@ -21717,10 +21702,10 @@
         <v>598</v>
       </c>
       <c r="E599" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
       <c r="F599" t="s">
-        <v>1172</v>
+        <v>1168</v>
       </c>
       <c r="G599" t="n">
         <v>1</v>
@@ -21746,10 +21731,10 @@
         <v>599</v>
       </c>
       <c r="E600" t="s">
-        <v>1173</v>
+        <v>1169</v>
       </c>
       <c r="F600" t="s">
-        <v>1174</v>
+        <v>1170</v>
       </c>
       <c r="G600" t="n">
         <v>1</v>
@@ -21775,10 +21760,10 @@
         <v>600</v>
       </c>
       <c r="E601" t="s">
-        <v>1175</v>
+        <v>1171</v>
       </c>
       <c r="F601" t="s">
-        <v>1176</v>
+        <v>1172</v>
       </c>
       <c r="G601" t="n">
         <v>1</v>
@@ -21804,10 +21789,10 @@
         <v>601</v>
       </c>
       <c r="E602" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="F602" t="s">
-        <v>1178</v>
+        <v>1174</v>
       </c>
       <c r="G602" t="n">
         <v>1</v>
@@ -21833,10 +21818,10 @@
         <v>602</v>
       </c>
       <c r="E603" t="s">
-        <v>1179</v>
+        <v>1175</v>
       </c>
       <c r="F603" t="s">
-        <v>1180</v>
+        <v>1176</v>
       </c>
       <c r="G603" t="n">
         <v>1</v>
@@ -21862,10 +21847,10 @@
         <v>603</v>
       </c>
       <c r="E604" t="s">
-        <v>1181</v>
+        <v>1177</v>
       </c>
       <c r="F604" t="s">
-        <v>1182</v>
+        <v>1178</v>
       </c>
       <c r="G604" t="n">
         <v>1</v>
@@ -21891,10 +21876,10 @@
         <v>604</v>
       </c>
       <c r="E605" t="s">
-        <v>1183</v>
+        <v>1179</v>
       </c>
       <c r="F605" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="G605" t="n">
         <v>1</v>
@@ -21920,10 +21905,10 @@
         <v>605</v>
       </c>
       <c r="E606" t="s">
-        <v>1185</v>
+        <v>1181</v>
       </c>
       <c r="F606" t="s">
-        <v>1186</v>
+        <v>1182</v>
       </c>
       <c r="G606" t="n">
         <v>1</v>
@@ -21949,10 +21934,10 @@
         <v>606</v>
       </c>
       <c r="E607" t="s">
-        <v>1187</v>
+        <v>1183</v>
       </c>
       <c r="F607" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="G607" t="n">
         <v>1</v>
@@ -21978,10 +21963,10 @@
         <v>607</v>
       </c>
       <c r="E608" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="F608" t="s">
-        <v>1190</v>
+        <v>1186</v>
       </c>
       <c r="G608" t="n">
         <v>2</v>
@@ -22036,10 +22021,10 @@
         <v>609</v>
       </c>
       <c r="E610" t="s">
-        <v>1191</v>
+        <v>1187</v>
       </c>
       <c r="F610" t="s">
-        <v>1192</v>
+        <v>430</v>
       </c>
       <c r="G610" t="n">
         <v>1</v>
@@ -22065,10 +22050,10 @@
         <v>610</v>
       </c>
       <c r="E611" t="s">
-        <v>1193</v>
+        <v>1188</v>
       </c>
       <c r="F611" t="s">
-        <v>1194</v>
+        <v>1189</v>
       </c>
       <c r="G611" t="n">
         <v>1</v>
@@ -22094,10 +22079,10 @@
         <v>611</v>
       </c>
       <c r="E612" t="s">
-        <v>1195</v>
+        <v>1190</v>
       </c>
       <c r="F612" t="s">
-        <v>1196</v>
+        <v>1191</v>
       </c>
       <c r="G612" t="n">
         <v>1</v>
@@ -22123,10 +22108,10 @@
         <v>612</v>
       </c>
       <c r="E613" t="s">
-        <v>1197</v>
+        <v>1192</v>
       </c>
       <c r="F613" t="s">
-        <v>1198</v>
+        <v>1193</v>
       </c>
       <c r="G613" t="n">
         <v>1</v>
@@ -22152,10 +22137,10 @@
         <v>613</v>
       </c>
       <c r="E614" t="s">
-        <v>1199</v>
+        <v>1194</v>
       </c>
       <c r="F614" t="s">
-        <v>1200</v>
+        <v>1195</v>
       </c>
       <c r="G614" t="n">
         <v>1</v>
@@ -22181,10 +22166,10 @@
         <v>614</v>
       </c>
       <c r="E615" t="s">
-        <v>1201</v>
+        <v>1196</v>
       </c>
       <c r="F615" t="s">
-        <v>1202</v>
+        <v>1197</v>
       </c>
       <c r="G615" t="n">
         <v>1</v>
@@ -22210,10 +22195,10 @@
         <v>615</v>
       </c>
       <c r="E616" t="s">
-        <v>1203</v>
+        <v>1198</v>
       </c>
       <c r="F616" t="s">
-        <v>1204</v>
+        <v>1199</v>
       </c>
       <c r="G616" t="n">
         <v>1</v>
@@ -22239,10 +22224,10 @@
         <v>616</v>
       </c>
       <c r="E617" t="s">
-        <v>1205</v>
+        <v>1200</v>
       </c>
       <c r="F617" t="s">
-        <v>1206</v>
+        <v>1201</v>
       </c>
       <c r="G617" t="n">
         <v>1</v>
@@ -22268,10 +22253,10 @@
         <v>617</v>
       </c>
       <c r="E618" t="s">
-        <v>1207</v>
+        <v>1202</v>
       </c>
       <c r="F618" t="s">
-        <v>1208</v>
+        <v>1203</v>
       </c>
       <c r="G618" t="n">
         <v>1</v>
@@ -22297,10 +22282,10 @@
         <v>618</v>
       </c>
       <c r="E619" t="s">
-        <v>1209</v>
+        <v>1204</v>
       </c>
       <c r="F619" t="s">
-        <v>1210</v>
+        <v>1205</v>
       </c>
       <c r="G619" t="n">
         <v>1</v>
@@ -22326,10 +22311,10 @@
         <v>619</v>
       </c>
       <c r="E620" t="s">
-        <v>1211</v>
+        <v>1206</v>
       </c>
       <c r="F620" t="s">
-        <v>1212</v>
+        <v>1207</v>
       </c>
       <c r="G620" t="n">
         <v>1</v>
@@ -22355,10 +22340,10 @@
         <v>620</v>
       </c>
       <c r="E621" t="s">
-        <v>1213</v>
+        <v>1208</v>
       </c>
       <c r="F621" t="s">
-        <v>1214</v>
+        <v>1209</v>
       </c>
       <c r="G621" t="n">
         <v>1</v>
@@ -22384,10 +22369,10 @@
         <v>621</v>
       </c>
       <c r="E622" t="s">
-        <v>1215</v>
+        <v>1210</v>
       </c>
       <c r="F622" t="s">
-        <v>1216</v>
+        <v>1211</v>
       </c>
       <c r="G622" t="n">
         <v>1</v>
@@ -22413,10 +22398,10 @@
         <v>622</v>
       </c>
       <c r="E623" t="s">
-        <v>1217</v>
+        <v>1212</v>
       </c>
       <c r="F623" t="s">
-        <v>1218</v>
+        <v>1213</v>
       </c>
       <c r="G623" t="n">
         <v>1</v>
@@ -22442,10 +22427,10 @@
         <v>623</v>
       </c>
       <c r="E624" t="s">
-        <v>1219</v>
+        <v>1214</v>
       </c>
       <c r="F624" t="s">
-        <v>1220</v>
+        <v>1215</v>
       </c>
       <c r="G624" t="n">
         <v>1</v>
@@ -22471,10 +22456,10 @@
         <v>624</v>
       </c>
       <c r="E625" t="s">
-        <v>1221</v>
+        <v>1216</v>
       </c>
       <c r="F625" t="s">
-        <v>1222</v>
+        <v>1217</v>
       </c>
       <c r="G625" t="n">
         <v>1</v>
@@ -22500,10 +22485,10 @@
         <v>625</v>
       </c>
       <c r="E626" t="s">
-        <v>1223</v>
+        <v>1218</v>
       </c>
       <c r="F626" t="s">
-        <v>1224</v>
+        <v>1219</v>
       </c>
       <c r="G626" t="n">
         <v>1</v>
@@ -22529,10 +22514,10 @@
         <v>626</v>
       </c>
       <c r="E627" t="s">
-        <v>1225</v>
+        <v>1220</v>
       </c>
       <c r="F627" t="s">
-        <v>1226</v>
+        <v>1221</v>
       </c>
       <c r="G627" t="n">
         <v>1</v>
@@ -22558,10 +22543,10 @@
         <v>627</v>
       </c>
       <c r="E628" t="s">
-        <v>1227</v>
+        <v>1222</v>
       </c>
       <c r="F628" t="s">
-        <v>1228</v>
+        <v>1223</v>
       </c>
       <c r="G628" t="n">
         <v>1</v>
@@ -22587,10 +22572,10 @@
         <v>628</v>
       </c>
       <c r="E629" t="s">
-        <v>1229</v>
+        <v>1224</v>
       </c>
       <c r="F629" t="s">
-        <v>1230</v>
+        <v>1225</v>
       </c>
       <c r="G629" t="n">
         <v>1</v>
@@ -22616,10 +22601,10 @@
         <v>629</v>
       </c>
       <c r="E630" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
       <c r="F630" t="s">
-        <v>1232</v>
+        <v>1227</v>
       </c>
       <c r="G630" t="n">
         <v>1</v>
@@ -22645,10 +22630,10 @@
         <v>630</v>
       </c>
       <c r="E631" t="s">
-        <v>1233</v>
+        <v>1228</v>
       </c>
       <c r="F631" t="s">
-        <v>1234</v>
+        <v>1229</v>
       </c>
       <c r="G631" t="n">
         <v>1</v>
@@ -22674,10 +22659,10 @@
         <v>631</v>
       </c>
       <c r="E632" t="s">
-        <v>1235</v>
+        <v>1230</v>
       </c>
       <c r="F632" t="s">
-        <v>1236</v>
+        <v>1231</v>
       </c>
       <c r="G632" t="n">
         <v>1</v>
@@ -22703,10 +22688,10 @@
         <v>632</v>
       </c>
       <c r="E633" t="s">
-        <v>1237</v>
+        <v>1232</v>
       </c>
       <c r="F633" t="s">
-        <v>1238</v>
+        <v>1233</v>
       </c>
       <c r="G633" t="n">
         <v>1</v>
@@ -22732,10 +22717,10 @@
         <v>633</v>
       </c>
       <c r="E634" t="s">
-        <v>1239</v>
+        <v>1234</v>
       </c>
       <c r="F634" t="s">
-        <v>1240</v>
+        <v>1235</v>
       </c>
       <c r="G634" t="n">
         <v>1</v>
@@ -22761,10 +22746,10 @@
         <v>634</v>
       </c>
       <c r="E635" t="s">
-        <v>1241</v>
+        <v>1236</v>
       </c>
       <c r="F635" t="s">
-        <v>1242</v>
+        <v>1237</v>
       </c>
       <c r="G635" t="n">
         <v>2</v>
@@ -22790,10 +22775,10 @@
         <v>635</v>
       </c>
       <c r="E636" t="s">
-        <v>1243</v>
+        <v>1238</v>
       </c>
       <c r="F636" t="s">
-        <v>1244</v>
+        <v>1239</v>
       </c>
       <c r="G636" t="n">
         <v>1</v>
@@ -22819,10 +22804,10 @@
         <v>636</v>
       </c>
       <c r="E637" t="s">
-        <v>1245</v>
+        <v>1240</v>
       </c>
       <c r="F637" t="s">
-        <v>1246</v>
+        <v>1241</v>
       </c>
       <c r="G637" t="n">
         <v>1</v>
@@ -22848,10 +22833,10 @@
         <v>637</v>
       </c>
       <c r="E638" t="s">
-        <v>1247</v>
+        <v>1242</v>
       </c>
       <c r="F638" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="G638" t="n">
         <v>1</v>
@@ -22877,10 +22862,10 @@
         <v>638</v>
       </c>
       <c r="E639" t="s">
-        <v>1249</v>
+        <v>1244</v>
       </c>
       <c r="F639" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="G639" t="n">
         <v>1</v>
@@ -22906,10 +22891,10 @@
         <v>639</v>
       </c>
       <c r="E640" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="F640" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
       <c r="G640" t="n">
         <v>1</v>
@@ -22935,10 +22920,10 @@
         <v>640</v>
       </c>
       <c r="E641" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
       <c r="F641" t="s">
-        <v>1254</v>
+        <v>1249</v>
       </c>
       <c r="G641" t="n">
         <v>1</v>
@@ -22964,10 +22949,10 @@
         <v>641</v>
       </c>
       <c r="E642" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
       <c r="F642" t="s">
-        <v>1256</v>
+        <v>1251</v>
       </c>
       <c r="G642" t="n">
         <v>1</v>
@@ -22993,10 +22978,10 @@
         <v>642</v>
       </c>
       <c r="E643" t="s">
-        <v>1257</v>
+        <v>1252</v>
       </c>
       <c r="F643" t="s">
-        <v>1258</v>
+        <v>1253</v>
       </c>
       <c r="G643" t="n">
         <v>1</v>
@@ -23022,10 +23007,10 @@
         <v>643</v>
       </c>
       <c r="E644" t="s">
-        <v>1259</v>
+        <v>1254</v>
       </c>
       <c r="F644" t="s">
-        <v>1260</v>
+        <v>1255</v>
       </c>
       <c r="G644" t="n">
         <v>1</v>
@@ -23051,10 +23036,10 @@
         <v>644</v>
       </c>
       <c r="E645" t="s">
-        <v>1261</v>
+        <v>1256</v>
       </c>
       <c r="F645" t="s">
-        <v>1262</v>
+        <v>1257</v>
       </c>
       <c r="G645" t="n">
         <v>1</v>
@@ -23080,10 +23065,10 @@
         <v>645</v>
       </c>
       <c r="E646" t="s">
-        <v>1263</v>
+        <v>1258</v>
       </c>
       <c r="F646" t="s">
-        <v>1264</v>
+        <v>1259</v>
       </c>
       <c r="G646" t="n">
         <v>1</v>
@@ -23109,10 +23094,10 @@
         <v>646</v>
       </c>
       <c r="E647" t="s">
-        <v>1265</v>
+        <v>1260</v>
       </c>
       <c r="F647" t="s">
-        <v>1266</v>
+        <v>1261</v>
       </c>
       <c r="G647" t="n">
         <v>1</v>
@@ -23138,10 +23123,10 @@
         <v>647</v>
       </c>
       <c r="E648" t="s">
-        <v>1267</v>
+        <v>1262</v>
       </c>
       <c r="F648" t="s">
-        <v>1268</v>
+        <v>1263</v>
       </c>
       <c r="G648" t="n">
         <v>1</v>
@@ -23167,10 +23152,10 @@
         <v>648</v>
       </c>
       <c r="E649" t="s">
-        <v>1269</v>
+        <v>1264</v>
       </c>
       <c r="F649" t="s">
-        <v>1270</v>
+        <v>1265</v>
       </c>
       <c r="G649" t="n">
         <v>1</v>
@@ -23196,10 +23181,10 @@
         <v>649</v>
       </c>
       <c r="E650" t="s">
-        <v>1271</v>
+        <v>1266</v>
       </c>
       <c r="F650" t="s">
-        <v>1272</v>
+        <v>1267</v>
       </c>
       <c r="G650" t="n">
         <v>1</v>
@@ -23225,10 +23210,10 @@
         <v>650</v>
       </c>
       <c r="E651" t="s">
-        <v>1273</v>
+        <v>1268</v>
       </c>
       <c r="F651" t="s">
-        <v>1274</v>
+        <v>1269</v>
       </c>
       <c r="G651" t="n">
         <v>1</v>
@@ -23254,10 +23239,10 @@
         <v>651</v>
       </c>
       <c r="E652" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="F652" t="s">
-        <v>1276</v>
+        <v>1271</v>
       </c>
       <c r="G652" t="n">
         <v>1</v>
@@ -23283,10 +23268,10 @@
         <v>652</v>
       </c>
       <c r="E653" t="s">
-        <v>1277</v>
+        <v>1272</v>
       </c>
       <c r="F653" t="s">
-        <v>1278</v>
+        <v>1273</v>
       </c>
       <c r="G653" t="n">
         <v>1</v>
@@ -23312,10 +23297,10 @@
         <v>653</v>
       </c>
       <c r="E654" t="s">
-        <v>1279</v>
+        <v>1274</v>
       </c>
       <c r="F654" t="s">
-        <v>1280</v>
+        <v>1275</v>
       </c>
       <c r="G654" t="n">
         <v>1</v>
@@ -23341,10 +23326,10 @@
         <v>654</v>
       </c>
       <c r="E655" t="s">
-        <v>1281</v>
+        <v>1276</v>
       </c>
       <c r="F655" t="s">
-        <v>1282</v>
+        <v>1277</v>
       </c>
       <c r="G655" t="n">
         <v>1</v>
@@ -23370,10 +23355,10 @@
         <v>655</v>
       </c>
       <c r="E656" t="s">
-        <v>1283</v>
+        <v>1278</v>
       </c>
       <c r="F656" t="s">
-        <v>1284</v>
+        <v>1279</v>
       </c>
       <c r="G656" t="n">
         <v>1</v>
@@ -23399,10 +23384,10 @@
         <v>656</v>
       </c>
       <c r="E657" t="s">
-        <v>1285</v>
+        <v>1280</v>
       </c>
       <c r="F657" t="s">
-        <v>1286</v>
+        <v>1281</v>
       </c>
       <c r="G657" t="n">
         <v>1</v>
@@ -23428,10 +23413,10 @@
         <v>657</v>
       </c>
       <c r="E658" t="s">
-        <v>1287</v>
+        <v>1282</v>
       </c>
       <c r="F658" t="s">
-        <v>1288</v>
+        <v>1283</v>
       </c>
       <c r="G658" t="n">
         <v>1</v>
@@ -23457,10 +23442,10 @@
         <v>658</v>
       </c>
       <c r="E659" t="s">
-        <v>1289</v>
+        <v>1284</v>
       </c>
       <c r="F659" t="s">
-        <v>1290</v>
+        <v>1285</v>
       </c>
       <c r="G659" t="n">
         <v>1</v>
@@ -23486,10 +23471,10 @@
         <v>659</v>
       </c>
       <c r="E660" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="F660" t="s">
-        <v>1292</v>
+        <v>1287</v>
       </c>
       <c r="G660" t="n">
         <v>1</v>
@@ -23515,10 +23500,10 @@
         <v>660</v>
       </c>
       <c r="E661" t="s">
-        <v>1293</v>
+        <v>1288</v>
       </c>
       <c r="F661" t="s">
-        <v>1294</v>
+        <v>1289</v>
       </c>
       <c r="G661" t="n">
         <v>1</v>
@@ -23544,10 +23529,10 @@
         <v>661</v>
       </c>
       <c r="E662" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="F662" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="G662" t="n">
         <v>1</v>
@@ -23573,10 +23558,10 @@
         <v>662</v>
       </c>
       <c r="E663" t="s">
-        <v>1297</v>
+        <v>1292</v>
       </c>
       <c r="F663" t="s">
-        <v>1298</v>
+        <v>1293</v>
       </c>
       <c r="G663" t="n">
         <v>1</v>
@@ -23602,10 +23587,10 @@
         <v>663</v>
       </c>
       <c r="E664" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
       <c r="F664" t="s">
-        <v>1300</v>
+        <v>1295</v>
       </c>
       <c r="G664" t="n">
         <v>1</v>
@@ -23631,10 +23616,10 @@
         <v>664</v>
       </c>
       <c r="E665" t="s">
-        <v>1301</v>
+        <v>1296</v>
       </c>
       <c r="F665" t="s">
-        <v>1302</v>
+        <v>1297</v>
       </c>
       <c r="G665" t="n">
         <v>1</v>
@@ -23660,10 +23645,10 @@
         <v>665</v>
       </c>
       <c r="E666" t="s">
-        <v>1303</v>
+        <v>1298</v>
       </c>
       <c r="F666" t="s">
-        <v>1304</v>
+        <v>1299</v>
       </c>
       <c r="G666" t="n">
         <v>1</v>
@@ -23689,10 +23674,10 @@
         <v>666</v>
       </c>
       <c r="E667" t="s">
-        <v>1305</v>
+        <v>1300</v>
       </c>
       <c r="F667" t="s">
-        <v>1306</v>
+        <v>1301</v>
       </c>
       <c r="G667" t="n">
         <v>1</v>
@@ -23718,10 +23703,10 @@
         <v>667</v>
       </c>
       <c r="E668" t="s">
-        <v>1307</v>
+        <v>1302</v>
       </c>
       <c r="F668" t="s">
-        <v>1308</v>
+        <v>1303</v>
       </c>
       <c r="G668" t="n">
         <v>1</v>
@@ -23747,10 +23732,10 @@
         <v>668</v>
       </c>
       <c r="E669" t="s">
-        <v>1309</v>
+        <v>1304</v>
       </c>
       <c r="F669" t="s">
-        <v>1310</v>
+        <v>1305</v>
       </c>
       <c r="G669" t="n">
         <v>1</v>
@@ -23776,10 +23761,10 @@
         <v>669</v>
       </c>
       <c r="E670" t="s">
-        <v>1311</v>
+        <v>1306</v>
       </c>
       <c r="F670" t="s">
-        <v>1312</v>
+        <v>1307</v>
       </c>
       <c r="G670" t="n">
         <v>1</v>
@@ -23805,10 +23790,10 @@
         <v>670</v>
       </c>
       <c r="E671" t="s">
-        <v>1313</v>
+        <v>1308</v>
       </c>
       <c r="F671" t="s">
-        <v>1314</v>
+        <v>1309</v>
       </c>
       <c r="G671" t="n">
         <v>3</v>
@@ -23834,10 +23819,10 @@
         <v>671</v>
       </c>
       <c r="E672" t="s">
-        <v>1315</v>
+        <v>1310</v>
       </c>
       <c r="F672" t="s">
-        <v>1316</v>
+        <v>1311</v>
       </c>
       <c r="G672" t="n">
         <v>1</v>
@@ -23863,10 +23848,10 @@
         <v>672</v>
       </c>
       <c r="E673" t="s">
-        <v>1317</v>
+        <v>1312</v>
       </c>
       <c r="F673" t="s">
-        <v>1318</v>
+        <v>1313</v>
       </c>
       <c r="G673" t="n">
         <v>1</v>
@@ -23892,10 +23877,10 @@
         <v>673</v>
       </c>
       <c r="E674" t="s">
-        <v>1319</v>
+        <v>1314</v>
       </c>
       <c r="F674" t="s">
-        <v>1320</v>
+        <v>1315</v>
       </c>
       <c r="G674" t="n">
         <v>1</v>
@@ -23921,10 +23906,10 @@
         <v>674</v>
       </c>
       <c r="E675" t="s">
-        <v>1321</v>
+        <v>1316</v>
       </c>
       <c r="F675" t="s">
-        <v>1322</v>
+        <v>1317</v>
       </c>
       <c r="G675" t="n">
         <v>1</v>
@@ -23950,10 +23935,10 @@
         <v>675</v>
       </c>
       <c r="E676" t="s">
-        <v>1323</v>
+        <v>1318</v>
       </c>
       <c r="F676" t="s">
-        <v>1324</v>
+        <v>1319</v>
       </c>
       <c r="G676" t="n">
         <v>1</v>
@@ -23979,10 +23964,10 @@
         <v>676</v>
       </c>
       <c r="E677" t="s">
-        <v>1325</v>
+        <v>1320</v>
       </c>
       <c r="F677" t="s">
-        <v>1326</v>
+        <v>1321</v>
       </c>
       <c r="G677" t="n">
         <v>1</v>
@@ -24008,10 +23993,10 @@
         <v>677</v>
       </c>
       <c r="E678" t="s">
-        <v>1327</v>
+        <v>1322</v>
       </c>
       <c r="F678" t="s">
-        <v>1328</v>
+        <v>1323</v>
       </c>
       <c r="G678" t="n">
         <v>1</v>
@@ -24037,10 +24022,10 @@
         <v>678</v>
       </c>
       <c r="E679" t="s">
-        <v>1329</v>
+        <v>1324</v>
       </c>
       <c r="F679" t="s">
-        <v>1330</v>
+        <v>1325</v>
       </c>
       <c r="G679" t="n">
         <v>1</v>
